--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1793">
   <si>
     <t xml:space="preserve">variables</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">short_eng</t>
   </si>
   <si>
-    <t xml:space="preserve">unit</t>
+    <t xml:space="preserve">units</t>
   </si>
   <si>
     <t xml:space="preserve">block1</t>
@@ -5154,7 +5154,7 @@
     <t xml:space="preserve">bigtractor</t>
   </si>
   <si>
-    <t xml:space="preserve">台</t>
+    <t xml:space="preserve">万台</t>
   </si>
   <si>
     <t xml:space="preserve">dztlj</t>
@@ -5181,7 +5181,7 @@
     <t xml:space="preserve">bigtractor1</t>
   </si>
   <si>
-    <t xml:space="preserve">部</t>
+    <t xml:space="preserve">万部</t>
   </si>
   <si>
     <t xml:space="preserve">dztlj_pt</t>
@@ -5266,6 +5266,9 @@
   </si>
   <si>
     <t xml:space="preserve">watersave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万套</t>
   </si>
   <si>
     <t xml:space="preserve">jsgg</t>
@@ -26119,7 +26122,7 @@
         <v>1741</v>
       </c>
       <c r="E476" t="s">
-        <v>1704</v>
+        <v>1742</v>
       </c>
       <c r="F476" t="s">
         <v>1694</v>
@@ -26131,7 +26134,7 @@
         <v>718</v>
       </c>
       <c r="I476" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="J476" t="s">
         <v>1697</v>
@@ -26155,17 +26158,17 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B477"/>
       <c r="C477" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D477" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E477" t="s">
-        <v>1704</v>
+        <v>18</v>
       </c>
       <c r="F477" t="s">
         <v>1694</v>
@@ -26177,7 +26180,7 @@
         <v>718</v>
       </c>
       <c r="I477" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="J477" t="s">
         <v>1697</v>
@@ -26189,11 +26192,11 @@
         <v>1699</v>
       </c>
       <c r="M477" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="N477"/>
       <c r="O477" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="P477" t="s">
         <v>1700</v>
@@ -26201,17 +26204,17 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B478"/>
       <c r="C478" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D478" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="E478" t="s">
-        <v>1704</v>
+        <v>18</v>
       </c>
       <c r="F478" t="s">
         <v>1694</v>
@@ -26223,7 +26226,7 @@
         <v>718</v>
       </c>
       <c r="I478" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J478" t="s">
         <v>1697</v>
@@ -26235,11 +26238,11 @@
         <v>1699</v>
       </c>
       <c r="M478" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="N478"/>
       <c r="O478" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="P478" t="s">
         <v>1700</v>
@@ -26247,17 +26250,17 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B479"/>
       <c r="C479" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D479" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="E479" t="s">
-        <v>1704</v>
+        <v>18</v>
       </c>
       <c r="F479" t="s">
         <v>1694</v>
@@ -26269,7 +26272,7 @@
         <v>718</v>
       </c>
       <c r="I479" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="J479" t="s">
         <v>1697</v>
@@ -26281,11 +26284,11 @@
         <v>1699</v>
       </c>
       <c r="M479" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="N479"/>
       <c r="O479" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="P479" t="s">
         <v>1700</v>
@@ -26293,14 +26296,14 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B480"/>
       <c r="C480" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D480" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E480" t="s">
         <v>126</v>
@@ -26312,7 +26315,7 @@
         <v>1695</v>
       </c>
       <c r="H480" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="I480" t="s">
         <v>835</v>
@@ -26324,10 +26327,10 @@
         <v>1698</v>
       </c>
       <c r="L480" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="M480" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="N480"/>
       <c r="O480" t="s">
@@ -26339,14 +26342,14 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B481"/>
       <c r="C481" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D481" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E481" t="s">
         <v>126</v>
@@ -26358,10 +26361,10 @@
         <v>1695</v>
       </c>
       <c r="H481" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="I481" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J481" t="s">
         <v>1697</v>
@@ -26370,10 +26373,10 @@
         <v>1698</v>
       </c>
       <c r="L481" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="M481" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="N481"/>
       <c r="O481" t="s">
@@ -26385,14 +26388,14 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B482"/>
       <c r="C482" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D482" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E482" t="s">
         <v>126</v>
@@ -26404,10 +26407,10 @@
         <v>1695</v>
       </c>
       <c r="H482" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="I482" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="J482" t="s">
         <v>1697</v>
@@ -26416,10 +26419,10 @@
         <v>1698</v>
       </c>
       <c r="L482" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="M482" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="N482"/>
       <c r="O482" t="s">
@@ -26431,14 +26434,14 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B483"/>
       <c r="C483" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D483" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E483" t="s">
         <v>126</v>
@@ -26450,7 +26453,7 @@
         <v>1695</v>
       </c>
       <c r="H483" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="I483" t="s">
         <v>652</v>
@@ -26462,10 +26465,10 @@
         <v>1698</v>
       </c>
       <c r="L483" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="M483" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="N483"/>
       <c r="O483" t="s">
@@ -26477,14 +26480,14 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B484"/>
       <c r="C484" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D484" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="E484" t="s">
         <v>126</v>
@@ -26496,10 +26499,10 @@
         <v>1695</v>
       </c>
       <c r="H484" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="I484" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="J484" t="s">
         <v>1697</v>
@@ -26508,10 +26511,10 @@
         <v>1698</v>
       </c>
       <c r="L484" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="M484" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="N484"/>
       <c r="O484" t="s">
@@ -26523,14 +26526,14 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B485"/>
       <c r="C485" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D485" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E485" t="s">
         <v>699</v>
@@ -26542,7 +26545,7 @@
         <v>1695</v>
       </c>
       <c r="H485" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="I485" t="s">
         <v>700</v>
@@ -26554,10 +26557,10 @@
         <v>1698</v>
       </c>
       <c r="L485" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="M485" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="N485"/>
       <c r="O485" t="s">
@@ -26569,14 +26572,14 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B486"/>
       <c r="C486" t="s">
         <v>703</v>
       </c>
       <c r="D486" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E486" t="s">
         <v>699</v>
@@ -26588,7 +26591,7 @@
         <v>1695</v>
       </c>
       <c r="H486" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="I486" t="s">
         <v>704</v>
@@ -26600,7 +26603,7 @@
         <v>1698</v>
       </c>
       <c r="L486" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="M486" t="s">
         <v>703</v>
@@ -26615,14 +26618,14 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B487"/>
       <c r="C487" t="s">
         <v>694</v>
       </c>
       <c r="D487" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E487" t="s">
         <v>587</v>
@@ -26634,7 +26637,7 @@
         <v>1695</v>
       </c>
       <c r="H487" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="I487" t="s">
         <v>695</v>
@@ -26646,7 +26649,7 @@
         <v>1698</v>
       </c>
       <c r="L487" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="M487" t="s">
         <v>694</v>
@@ -26661,17 +26664,17 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B488"/>
       <c r="C488" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D488" t="s">
         <v>1725</v>
       </c>
       <c r="E488" t="s">
-        <v>699</v>
+        <v>126</v>
       </c>
       <c r="F488" t="s">
         <v>1694</v>
@@ -26680,10 +26683,10 @@
         <v>1695</v>
       </c>
       <c r="H488" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="I488" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="J488" t="s">
         <v>1697</v>
@@ -26692,10 +26695,10 @@
         <v>1698</v>
       </c>
       <c r="L488" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="M488" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="N488"/>
       <c r="O488" t="s">
@@ -26707,14 +26710,14 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B489"/>
       <c r="C489" t="s">
         <v>721</v>
       </c>
       <c r="D489" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E489" t="s">
         <v>699</v>
@@ -26726,7 +26729,7 @@
         <v>1695</v>
       </c>
       <c r="H489" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="I489" t="s">
         <v>722</v>
@@ -26738,7 +26741,7 @@
         <v>1698</v>
       </c>
       <c r="L489" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="M489" t="s">
         <v>721</v>

--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -21042,7 +21042,7 @@
         <v>1265</v>
       </c>
       <c r="E361" t="s">
-        <v>531</v>
+        <v>960</v>
       </c>
       <c r="F361" t="s">
         <v>818</v>
@@ -21130,7 +21130,7 @@
         <v>1275</v>
       </c>
       <c r="E363" t="s">
-        <v>531</v>
+        <v>960</v>
       </c>
       <c r="F363" t="s">
         <v>818</v>

--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -19589,7 +19589,9 @@
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
-      <c r="E327"/>
+      <c r="E327" t="s">
+        <v>531</v>
+      </c>
       <c r="F327" t="s">
         <v>818</v>
       </c>
@@ -19627,7 +19629,9 @@
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
-      <c r="E328"/>
+      <c r="E328" t="s">
+        <v>189</v>
+      </c>
       <c r="F328" t="s">
         <v>818</v>
       </c>
@@ -19665,7 +19669,9 @@
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
-      <c r="E329"/>
+      <c r="E329" t="s">
+        <v>189</v>
+      </c>
       <c r="F329" t="s">
         <v>818</v>
       </c>
@@ -19703,7 +19709,9 @@
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
-      <c r="E330"/>
+      <c r="E330" t="s">
+        <v>189</v>
+      </c>
       <c r="F330" t="s">
         <v>818</v>
       </c>

--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1984">
   <si>
     <t xml:space="preserve">variables</t>
   </si>
@@ -5419,6 +5419,579 @@
   </si>
   <si>
     <t xml:space="preserve">pesticide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zcqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种畜禽场站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种畜禽厂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2021.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国畜牧兽医年鉴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种奶牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种肉牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种水牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种耗牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种马场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种猪场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种羊场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种绵阳场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种细毛羊场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种山羊场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种绒山羊场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zqc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种禽场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种蛋鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zdjysdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdjysdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祖代及以上蛋鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_fmddjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmddjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">父母代蛋鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种肉鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zdjysrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdjysrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祖代及以上肉鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_fmdrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmdrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">父母代肉鸡场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种鸭场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种鹅场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_ztc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种兔场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_zfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种蜂场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t2_zcqc_qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_zcqc_zcz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zcz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种畜站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_zcqc_zgnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zgnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种公牛站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_zcqc_zgyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zgyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种公羊站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_zcqc_zgzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zgzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种公猪站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">头</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年末存栏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_zmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">匹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_zzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_zdjysdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t4_nmcl_fmddjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zdjysrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_fmdrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_ztc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfmccl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能繁母畜存栏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_nfmccl_zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_nfmccl_zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cczcq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出场种畜禽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zmc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_cczcq_zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_cczcq_zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_cczcq_zdjysdjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_cczcq_zdjysrjc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_znc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产胚胎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_znnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_zrnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_zsnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_zhnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scpt_zyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scpt_zmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scpt_zxmyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scpt_zsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scpt_zmsyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scjy_zgnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产精液</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scjy_zsyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zsyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t9_scjy_zgzz</t>
   </si>
 </sst>
 </file>
@@ -26762,6 +27335,3912 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490" t="s">
+        <v>531</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J490" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K490" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L490" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M490" t="s">
+        <v>1801</v>
+      </c>
+      <c r="N490"/>
+      <c r="O490" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P490" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+      <c r="E491" t="s">
+        <v>531</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J491" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K491" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L491" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M491" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N491"/>
+      <c r="O491" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P491" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492" t="s">
+        <v>531</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J492" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K492" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L492" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M492" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N492"/>
+      <c r="O492" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P492" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+      <c r="E493" t="s">
+        <v>531</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I493" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J493" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K493" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L493" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M493" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N493"/>
+      <c r="O493" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P493" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B494"/>
+      <c r="C494"/>
+      <c r="D494"/>
+      <c r="E494" t="s">
+        <v>531</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G494" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H494" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J494" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K494" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L494" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M494" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N494"/>
+      <c r="O494" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P494" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B495"/>
+      <c r="C495"/>
+      <c r="D495"/>
+      <c r="E495" t="s">
+        <v>531</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G495" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I495" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J495" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K495" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L495" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M495" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N495"/>
+      <c r="O495" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P495" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B496"/>
+      <c r="C496"/>
+      <c r="D496"/>
+      <c r="E496" t="s">
+        <v>531</v>
+      </c>
+      <c r="F496" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I496" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J496" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K496" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L496" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M496" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N496"/>
+      <c r="O496" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P496" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B497"/>
+      <c r="C497"/>
+      <c r="D497"/>
+      <c r="E497" t="s">
+        <v>531</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J497" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K497" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L497" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M497" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N497"/>
+      <c r="O497" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P497" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B498"/>
+      <c r="C498"/>
+      <c r="D498"/>
+      <c r="E498" t="s">
+        <v>531</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G498" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J498" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K498" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L498" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M498" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N498"/>
+      <c r="O498" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P498" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B499"/>
+      <c r="C499"/>
+      <c r="D499"/>
+      <c r="E499" t="s">
+        <v>531</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G499" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H499" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I499" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J499" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K499" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L499" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M499" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N499"/>
+      <c r="O499" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P499" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+      <c r="E500" t="s">
+        <v>531</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I500" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J500" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K500" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L500" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M500" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N500"/>
+      <c r="O500" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P500" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B501"/>
+      <c r="C501"/>
+      <c r="D501"/>
+      <c r="E501" t="s">
+        <v>531</v>
+      </c>
+      <c r="F501" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H501" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J501" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K501" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L501" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M501" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N501"/>
+      <c r="O501" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P501" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B502"/>
+      <c r="C502"/>
+      <c r="D502"/>
+      <c r="E502" t="s">
+        <v>531</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I502" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J502" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K502" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L502" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M502" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N502"/>
+      <c r="O502" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P502" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B503"/>
+      <c r="C503"/>
+      <c r="D503"/>
+      <c r="E503" t="s">
+        <v>531</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G503" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I503" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J503" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K503" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L503" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M503" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N503"/>
+      <c r="O503" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P503" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B504"/>
+      <c r="C504"/>
+      <c r="D504"/>
+      <c r="E504" t="s">
+        <v>531</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G504" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J504" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K504" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L504" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M504" t="s">
+        <v>1847</v>
+      </c>
+      <c r="N504"/>
+      <c r="O504" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P504" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B505"/>
+      <c r="C505"/>
+      <c r="D505"/>
+      <c r="E505" t="s">
+        <v>531</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J505" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K505" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L505" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M505" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N505"/>
+      <c r="O505" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P505" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B506"/>
+      <c r="C506"/>
+      <c r="D506"/>
+      <c r="E506" t="s">
+        <v>531</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I506" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J506" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K506" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L506" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M506" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N506"/>
+      <c r="O506" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P506" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B507"/>
+      <c r="C507"/>
+      <c r="D507"/>
+      <c r="E507" t="s">
+        <v>531</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J507" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K507" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L507" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M507" t="s">
+        <v>1856</v>
+      </c>
+      <c r="N507"/>
+      <c r="O507" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P507" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B508"/>
+      <c r="C508"/>
+      <c r="D508"/>
+      <c r="E508" t="s">
+        <v>531</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I508" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J508" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K508" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L508" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M508" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N508"/>
+      <c r="O508" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P508" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B509"/>
+      <c r="C509"/>
+      <c r="D509"/>
+      <c r="E509" t="s">
+        <v>531</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J509" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K509" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L509" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M509" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N509"/>
+      <c r="O509" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P509" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B510"/>
+      <c r="C510"/>
+      <c r="D510"/>
+      <c r="E510" t="s">
+        <v>531</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H510" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I510" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J510" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K510" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L510" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M510" t="s">
+        <v>1864</v>
+      </c>
+      <c r="N510"/>
+      <c r="O510" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P510" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B511"/>
+      <c r="C511"/>
+      <c r="D511"/>
+      <c r="E511" t="s">
+        <v>531</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I511" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K511" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L511" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M511" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N511"/>
+      <c r="O511" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P511" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B512"/>
+      <c r="C512"/>
+      <c r="D512"/>
+      <c r="E512" t="s">
+        <v>531</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I512" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K512" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N512"/>
+      <c r="O512" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P512" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B513"/>
+      <c r="C513"/>
+      <c r="D513"/>
+      <c r="E513" t="s">
+        <v>531</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I513" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J513" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K513" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L513" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M513" t="s">
+        <v>1873</v>
+      </c>
+      <c r="N513"/>
+      <c r="O513" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P513" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B514"/>
+      <c r="C514"/>
+      <c r="D514"/>
+      <c r="E514" t="s">
+        <v>531</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I514" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J514" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K514" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L514" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M514" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N514"/>
+      <c r="O514" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P514" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B515"/>
+      <c r="C515"/>
+      <c r="D515"/>
+      <c r="E515" t="s">
+        <v>531</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I515" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J515" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K515" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L515" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M515" t="s">
+        <v>1881</v>
+      </c>
+      <c r="N515"/>
+      <c r="O515" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P515" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B516"/>
+      <c r="C516"/>
+      <c r="D516"/>
+      <c r="E516" t="s">
+        <v>531</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J516" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K516" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L516" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M516" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N516"/>
+      <c r="O516" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P516" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B517"/>
+      <c r="C517"/>
+      <c r="D517"/>
+      <c r="E517" t="s">
+        <v>531</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I517" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K517" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L517" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M517" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N517"/>
+      <c r="O517" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P517" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B518"/>
+      <c r="C518"/>
+      <c r="D518"/>
+      <c r="E518" t="s">
+        <v>531</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K518" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L518" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M518" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N518"/>
+      <c r="O518" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P518" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B519"/>
+      <c r="C519"/>
+      <c r="D519"/>
+      <c r="E519" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I519" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J519" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K519" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L519" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M519" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N519"/>
+      <c r="O519" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P519" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B520"/>
+      <c r="C520"/>
+      <c r="D520"/>
+      <c r="E520" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I520" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J520" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K520" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L520" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M520" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N520"/>
+      <c r="O520" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P520" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B521"/>
+      <c r="C521"/>
+      <c r="D521"/>
+      <c r="E521" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H521" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I521" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J521" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K521" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L521" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M521" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N521"/>
+      <c r="O521" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P521" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+      <c r="E522" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I522" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J522" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K522" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L522" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N522"/>
+      <c r="O522" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P522" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+      <c r="E523" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I523" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J523" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K523" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L523" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M523" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N523"/>
+      <c r="O523" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P523" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+      <c r="E524" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I524" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J524" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K524" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L524" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M524" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N524"/>
+      <c r="O524" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P524" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+      <c r="E525" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I525" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J525" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K525" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L525" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M525" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N525"/>
+      <c r="O525" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P525" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B526"/>
+      <c r="C526"/>
+      <c r="D526"/>
+      <c r="E526" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J526" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K526" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L526" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M526" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N526"/>
+      <c r="O526" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P526" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B527"/>
+      <c r="C527"/>
+      <c r="D527"/>
+      <c r="E527" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I527" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J527" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K527" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L527" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M527" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N527"/>
+      <c r="O527" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P527" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B528"/>
+      <c r="C528"/>
+      <c r="D528"/>
+      <c r="E528" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H528" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I528" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K528" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L528" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M528" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N528"/>
+      <c r="O528" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P528" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+      <c r="E529" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I529" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J529" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L529" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M529" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N529"/>
+      <c r="O529" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P529" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+      <c r="E530" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I530" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J530" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K530" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L530" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M530" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N530"/>
+      <c r="O530" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P530" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B531"/>
+      <c r="C531"/>
+      <c r="D531"/>
+      <c r="E531" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I531" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J531" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K531" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L531" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M531" t="s">
+        <v>1847</v>
+      </c>
+      <c r="N531"/>
+      <c r="O531" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P531" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+      <c r="E532" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I532" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J532" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K532" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L532" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M532" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N532"/>
+      <c r="O532" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P532" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+      <c r="E533" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H533" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J533" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K533" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L533" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M533" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N533"/>
+      <c r="O533" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P533" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+      <c r="E534" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I534" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J534" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K534" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L534" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M534" t="s">
+        <v>1856</v>
+      </c>
+      <c r="N534"/>
+      <c r="O534" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P534" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+      <c r="E535" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J535" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K535" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L535" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M535" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N535"/>
+      <c r="O535" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P535" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+      <c r="E536" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I536" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J536" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K536" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L536" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M536" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N536"/>
+      <c r="O536" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P536" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B537"/>
+      <c r="C537"/>
+      <c r="D537"/>
+      <c r="E537" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K537" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L537" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M537" t="s">
+        <v>1864</v>
+      </c>
+      <c r="N537"/>
+      <c r="O537" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P537" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+      <c r="E538" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I538" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J538" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K538" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L538" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M538" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N538"/>
+      <c r="O538" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P538" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B539"/>
+      <c r="C539"/>
+      <c r="D539"/>
+      <c r="E539" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I539" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J539" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K539" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L539" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M539" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N539"/>
+      <c r="O539" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P539" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B540"/>
+      <c r="C540"/>
+      <c r="D540"/>
+      <c r="E540" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I540" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J540" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K540" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M540" t="s">
+        <v>1873</v>
+      </c>
+      <c r="N540"/>
+      <c r="O540" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P540" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B541"/>
+      <c r="C541"/>
+      <c r="D541"/>
+      <c r="E541" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H541" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I541" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J541" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K541" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L541" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M541" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N541"/>
+      <c r="O541" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P541" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B542"/>
+      <c r="C542"/>
+      <c r="D542"/>
+      <c r="E542" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H542" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I542" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J542" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K542" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L542" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M542" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N542"/>
+      <c r="O542" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P542" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+      <c r="E543" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H543" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I543" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J543" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K543" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L543" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M543" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N543"/>
+      <c r="O543" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P543" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+      <c r="E544" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I544" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J544" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L544" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M544" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N544"/>
+      <c r="O544" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P544" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B545"/>
+      <c r="C545"/>
+      <c r="D545"/>
+      <c r="E545" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I545" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J545" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K545" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M545" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N545"/>
+      <c r="O545" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P545" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B546"/>
+      <c r="C546"/>
+      <c r="D546"/>
+      <c r="E546" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I546" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J546" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K546" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L546" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M546" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N546"/>
+      <c r="O546" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P546" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B547"/>
+      <c r="C547"/>
+      <c r="D547"/>
+      <c r="E547" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I547" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J547" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K547" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L547" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M547" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N547"/>
+      <c r="O547" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P547" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B548"/>
+      <c r="C548"/>
+      <c r="D548"/>
+      <c r="E548" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J548" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K548" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L548" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M548" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N548"/>
+      <c r="O548" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P548" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B549"/>
+      <c r="C549"/>
+      <c r="D549"/>
+      <c r="E549" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I549" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J549" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K549" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L549" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M549" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N549"/>
+      <c r="O549" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P549" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B550"/>
+      <c r="C550"/>
+      <c r="D550"/>
+      <c r="E550" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I550" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J550" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K550" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L550" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M550" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N550"/>
+      <c r="O550" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P550" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B551"/>
+      <c r="C551"/>
+      <c r="D551"/>
+      <c r="E551" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I551" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J551" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K551" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L551" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M551" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N551"/>
+      <c r="O551" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P551" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B552"/>
+      <c r="C552"/>
+      <c r="D552"/>
+      <c r="E552" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J552" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K552" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L552" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N552"/>
+      <c r="O552" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P552" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B553"/>
+      <c r="C553"/>
+      <c r="D553"/>
+      <c r="E553" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K553" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L553" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N553"/>
+      <c r="O553" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P553" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B554"/>
+      <c r="C554"/>
+      <c r="D554"/>
+      <c r="E554" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I554" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K554" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L554" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N554"/>
+      <c r="O554" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P554" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B555"/>
+      <c r="C555"/>
+      <c r="D555"/>
+      <c r="E555" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J555" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L555" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N555"/>
+      <c r="O555" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P555" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B556"/>
+      <c r="C556"/>
+      <c r="D556"/>
+      <c r="E556" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I556" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J556" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K556" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N556"/>
+      <c r="O556" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P556" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B557"/>
+      <c r="C557"/>
+      <c r="D557"/>
+      <c r="E557" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I557" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J557" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K557" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M557" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N557"/>
+      <c r="O557" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P557" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B558"/>
+      <c r="C558"/>
+      <c r="D558"/>
+      <c r="E558" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H558" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K558" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L558" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M558" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N558"/>
+      <c r="O558" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P558" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B559"/>
+      <c r="C559"/>
+      <c r="D559"/>
+      <c r="E559" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G559" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H559" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I559" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J559" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K559" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M559" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N559"/>
+      <c r="O559" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P559" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B560"/>
+      <c r="C560"/>
+      <c r="D560"/>
+      <c r="E560" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I560" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J560" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K560" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L560" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N560"/>
+      <c r="O560" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P560" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B561"/>
+      <c r="C561"/>
+      <c r="D561"/>
+      <c r="E561" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G561" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H561" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I561" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J561" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K561" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L561" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N561"/>
+      <c r="O561" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P561" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B562"/>
+      <c r="C562"/>
+      <c r="D562"/>
+      <c r="E562" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H562" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I562" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J562" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K562" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L562" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M562" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N562"/>
+      <c r="O562" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P562" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B563"/>
+      <c r="C563"/>
+      <c r="D563"/>
+      <c r="E563" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I563" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K563" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L563" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M563" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N563"/>
+      <c r="O563" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P563" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B564"/>
+      <c r="C564"/>
+      <c r="D564"/>
+      <c r="E564" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I564" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J564" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K564" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L564" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M564" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N564"/>
+      <c r="O564" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P564" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B565"/>
+      <c r="C565"/>
+      <c r="D565"/>
+      <c r="E565" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J565" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K565" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L565" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M565" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N565"/>
+      <c r="O565" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P565" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B566"/>
+      <c r="C566"/>
+      <c r="D566"/>
+      <c r="E566" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I566" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J566" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K566" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L566" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M566" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N566"/>
+      <c r="O566" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P566" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B567"/>
+      <c r="C567"/>
+      <c r="D567"/>
+      <c r="E567" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H567" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I567" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K567" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L567" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M567" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N567"/>
+      <c r="O567" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P567" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+      <c r="E568" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J568" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K568" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L568" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M568" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N568"/>
+      <c r="O568" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P568" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B569"/>
+      <c r="C569"/>
+      <c r="D569"/>
+      <c r="E569" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J569" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K569" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L569" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M569" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N569"/>
+      <c r="O569" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P569" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B570"/>
+      <c r="C570"/>
+      <c r="D570"/>
+      <c r="E570" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I570" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L570" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N570"/>
+      <c r="O570" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P570" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B571"/>
+      <c r="C571"/>
+      <c r="D571"/>
+      <c r="E571" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K571" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L571" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N571"/>
+      <c r="O571" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P571" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B572"/>
+      <c r="C572"/>
+      <c r="D572"/>
+      <c r="E572" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I572" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J572" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L572" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N572"/>
+      <c r="O572" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P572" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B573"/>
+      <c r="C573"/>
+      <c r="D573"/>
+      <c r="E573" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K573" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L573" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N573"/>
+      <c r="O573" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P573" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B574"/>
+      <c r="C574"/>
+      <c r="D574"/>
+      <c r="E574" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I574" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L574" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N574"/>
+      <c r="O574" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P574" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B575"/>
+      <c r="C575"/>
+      <c r="D575"/>
+      <c r="E575" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I575" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J575" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L575" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N575"/>
+      <c r="O575" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P575" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B576"/>
+      <c r="C576"/>
+      <c r="D576"/>
+      <c r="E576" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I576" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J576" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N576"/>
+      <c r="O576" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P576" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B577"/>
+      <c r="C577"/>
+      <c r="D577"/>
+      <c r="E577" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I577" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J577" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L577" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M577" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N577"/>
+      <c r="O577" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P577" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B578"/>
+      <c r="C578"/>
+      <c r="D578"/>
+      <c r="E578" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G578" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H578" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I578" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M578" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N578"/>
+      <c r="O578" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P578" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B579"/>
+      <c r="C579"/>
+      <c r="D579"/>
+      <c r="E579" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I579" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J579" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K579" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M579" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N579"/>
+      <c r="O579" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P579" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B580"/>
+      <c r="C580"/>
+      <c r="D580"/>
+      <c r="E580" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G580" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I580" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J580" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K580" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L580" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M580" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N580"/>
+      <c r="O580" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P580" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B581"/>
+      <c r="C581"/>
+      <c r="D581"/>
+      <c r="E581" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I581" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N581"/>
+      <c r="O581" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P581" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B582"/>
+      <c r="C582"/>
+      <c r="D582"/>
+      <c r="E582" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I582" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J582" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L582" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N582"/>
+      <c r="O582" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P582" t="s">
+        <v>1803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1985">
   <si>
     <t xml:space="preserve">variables</t>
   </si>
@@ -5478,6 +5478,9 @@
     <t xml:space="preserve">zrnc</t>
   </si>
   <si>
+    <t xml:space="preserve">种乳牛场</t>
+  </si>
+  <si>
     <t xml:space="preserve">种肉牛场</t>
   </si>
   <si>
@@ -5496,7 +5499,7 @@
     <t xml:space="preserve">zhnc</t>
   </si>
   <si>
-    <t xml:space="preserve">种耗牛场</t>
+    <t xml:space="preserve">种牦牛场</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t1_zcqc_zmc</t>
@@ -5532,7 +5535,7 @@
     <t xml:space="preserve">zmyc</t>
   </si>
   <si>
-    <t xml:space="preserve">种绵阳场</t>
+    <t xml:space="preserve">种绵羊场</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t1_zcqc_zxmyc</t>
@@ -27505,7 +27508,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B494"/>
       <c r="C494"/>
@@ -27523,7 +27526,7 @@
         <v>1796</v>
       </c>
       <c r="I494" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="J494" t="s">
         <v>1798</v>
@@ -27535,7 +27538,7 @@
         <v>1800</v>
       </c>
       <c r="M494" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N494"/>
       <c r="O494" t="s">
@@ -27547,7 +27550,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B495"/>
       <c r="C495"/>
@@ -27565,7 +27568,7 @@
         <v>1796</v>
       </c>
       <c r="I495" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J495" t="s">
         <v>1798</v>
@@ -27577,7 +27580,7 @@
         <v>1800</v>
       </c>
       <c r="M495" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="N495"/>
       <c r="O495" t="s">
@@ -27589,7 +27592,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B496"/>
       <c r="C496"/>
@@ -27607,7 +27610,7 @@
         <v>1796</v>
       </c>
       <c r="I496" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J496" t="s">
         <v>1798</v>
@@ -27619,7 +27622,7 @@
         <v>1800</v>
       </c>
       <c r="M496" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="N496"/>
       <c r="O496" t="s">
@@ -27631,7 +27634,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B497"/>
       <c r="C497"/>
@@ -27649,7 +27652,7 @@
         <v>1796</v>
       </c>
       <c r="I497" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J497" t="s">
         <v>1798</v>
@@ -27661,7 +27664,7 @@
         <v>1800</v>
       </c>
       <c r="M497" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="N497"/>
       <c r="O497" t="s">
@@ -27673,7 +27676,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B498"/>
       <c r="C498"/>
@@ -27691,7 +27694,7 @@
         <v>1796</v>
       </c>
       <c r="I498" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J498" t="s">
         <v>1798</v>
@@ -27703,7 +27706,7 @@
         <v>1800</v>
       </c>
       <c r="M498" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="N498"/>
       <c r="O498" t="s">
@@ -27715,7 +27718,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B499"/>
       <c r="C499"/>
@@ -27733,7 +27736,7 @@
         <v>1796</v>
       </c>
       <c r="I499" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J499" t="s">
         <v>1798</v>
@@ -27745,7 +27748,7 @@
         <v>1800</v>
       </c>
       <c r="M499" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N499"/>
       <c r="O499" t="s">
@@ -27757,7 +27760,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B500"/>
       <c r="C500"/>
@@ -27775,7 +27778,7 @@
         <v>1796</v>
       </c>
       <c r="I500" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J500" t="s">
         <v>1798</v>
@@ -27787,7 +27790,7 @@
         <v>1800</v>
       </c>
       <c r="M500" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N500"/>
       <c r="O500" t="s">
@@ -27799,7 +27802,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B501"/>
       <c r="C501"/>
@@ -27817,7 +27820,7 @@
         <v>1796</v>
       </c>
       <c r="I501" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J501" t="s">
         <v>1798</v>
@@ -27829,7 +27832,7 @@
         <v>1800</v>
       </c>
       <c r="M501" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N501"/>
       <c r="O501" t="s">
@@ -27841,7 +27844,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B502"/>
       <c r="C502"/>
@@ -27859,7 +27862,7 @@
         <v>1796</v>
       </c>
       <c r="I502" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J502" t="s">
         <v>1798</v>
@@ -27871,7 +27874,7 @@
         <v>1800</v>
       </c>
       <c r="M502" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="N502"/>
       <c r="O502" t="s">
@@ -27883,7 +27886,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B503"/>
       <c r="C503"/>
@@ -27895,25 +27898,25 @@
         <v>1794</v>
       </c>
       <c r="G503" t="s">
-        <v>1841</v>
+        <v>1795</v>
       </c>
       <c r="H503" t="s">
         <v>1796</v>
       </c>
       <c r="I503" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="J503" t="s">
         <v>1798</v>
       </c>
       <c r="K503" t="s">
-        <v>1843</v>
+        <v>1799</v>
       </c>
       <c r="L503" t="s">
         <v>1800</v>
       </c>
       <c r="M503" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="N503"/>
       <c r="O503" t="s">
@@ -27925,7 +27928,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B504"/>
       <c r="C504"/>
@@ -27937,25 +27940,25 @@
         <v>1794</v>
       </c>
       <c r="G504" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H504" t="s">
         <v>1796</v>
       </c>
       <c r="I504" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="J504" t="s">
         <v>1798</v>
       </c>
       <c r="K504" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L504" t="s">
         <v>1800</v>
       </c>
       <c r="M504" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="N504"/>
       <c r="O504" t="s">
@@ -27967,7 +27970,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B505"/>
       <c r="C505"/>
@@ -27979,25 +27982,25 @@
         <v>1794</v>
       </c>
       <c r="G505" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H505" t="s">
         <v>1796</v>
       </c>
       <c r="I505" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="J505" t="s">
         <v>1798</v>
       </c>
       <c r="K505" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L505" t="s">
         <v>1800</v>
       </c>
       <c r="M505" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="N505"/>
       <c r="O505" t="s">
@@ -28009,7 +28012,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B506"/>
       <c r="C506"/>
@@ -28021,25 +28024,25 @@
         <v>1794</v>
       </c>
       <c r="G506" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H506" t="s">
         <v>1796</v>
       </c>
       <c r="I506" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="J506" t="s">
         <v>1798</v>
       </c>
       <c r="K506" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L506" t="s">
         <v>1800</v>
       </c>
       <c r="M506" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="N506"/>
       <c r="O506" t="s">
@@ -28051,7 +28054,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B507"/>
       <c r="C507"/>
@@ -28063,25 +28066,25 @@
         <v>1794</v>
       </c>
       <c r="G507" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H507" t="s">
         <v>1796</v>
       </c>
       <c r="I507" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="J507" t="s">
         <v>1798</v>
       </c>
       <c r="K507" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L507" t="s">
         <v>1800</v>
       </c>
       <c r="M507" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="N507"/>
       <c r="O507" t="s">
@@ -28093,7 +28096,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B508"/>
       <c r="C508"/>
@@ -28105,25 +28108,25 @@
         <v>1794</v>
       </c>
       <c r="G508" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H508" t="s">
         <v>1796</v>
       </c>
       <c r="I508" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="J508" t="s">
         <v>1798</v>
       </c>
       <c r="K508" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L508" t="s">
         <v>1800</v>
       </c>
       <c r="M508" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="N508"/>
       <c r="O508" t="s">
@@ -28135,7 +28138,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B509"/>
       <c r="C509"/>
@@ -28147,25 +28150,25 @@
         <v>1794</v>
       </c>
       <c r="G509" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H509" t="s">
         <v>1796</v>
       </c>
       <c r="I509" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="J509" t="s">
         <v>1798</v>
       </c>
       <c r="K509" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L509" t="s">
         <v>1800</v>
       </c>
       <c r="M509" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="N509"/>
       <c r="O509" t="s">
@@ -28177,7 +28180,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B510"/>
       <c r="C510"/>
@@ -28189,25 +28192,25 @@
         <v>1794</v>
       </c>
       <c r="G510" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H510" t="s">
         <v>1796</v>
       </c>
       <c r="I510" t="s">
-        <v>1826</v>
+        <v>1862</v>
       </c>
       <c r="J510" t="s">
         <v>1798</v>
       </c>
       <c r="K510" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L510" t="s">
         <v>1800</v>
       </c>
       <c r="M510" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="N510"/>
       <c r="O510" t="s">
@@ -28219,7 +28222,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B511"/>
       <c r="C511"/>
@@ -28231,25 +28234,25 @@
         <v>1794</v>
       </c>
       <c r="G511" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H511" t="s">
         <v>1796</v>
       </c>
       <c r="I511" t="s">
-        <v>1866</v>
+        <v>1827</v>
       </c>
       <c r="J511" t="s">
         <v>1798</v>
       </c>
       <c r="K511" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L511" t="s">
         <v>1800</v>
       </c>
       <c r="M511" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="N511"/>
       <c r="O511" t="s">
@@ -28261,7 +28264,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B512"/>
       <c r="C512"/>
@@ -28273,25 +28276,25 @@
         <v>1794</v>
       </c>
       <c r="G512" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H512" t="s">
         <v>1796</v>
       </c>
       <c r="I512" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J512" t="s">
         <v>1798</v>
       </c>
       <c r="K512" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L512" t="s">
         <v>1800</v>
       </c>
       <c r="M512" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="N512"/>
       <c r="O512" t="s">
@@ -28303,7 +28306,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B513"/>
       <c r="C513"/>
@@ -28315,25 +28318,25 @@
         <v>1794</v>
       </c>
       <c r="G513" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H513" t="s">
         <v>1796</v>
       </c>
       <c r="I513" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="J513" t="s">
         <v>1798</v>
       </c>
       <c r="K513" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L513" t="s">
         <v>1800</v>
       </c>
       <c r="M513" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="N513"/>
       <c r="O513" t="s">
@@ -28345,7 +28348,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B514"/>
       <c r="C514"/>
@@ -28357,25 +28360,25 @@
         <v>1794</v>
       </c>
       <c r="G514" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H514" t="s">
         <v>1796</v>
       </c>
       <c r="I514" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="J514" t="s">
         <v>1798</v>
       </c>
       <c r="K514" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L514" t="s">
         <v>1800</v>
       </c>
       <c r="M514" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="N514"/>
       <c r="O514" t="s">
@@ -28387,7 +28390,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B515"/>
       <c r="C515"/>
@@ -28399,25 +28402,25 @@
         <v>1794</v>
       </c>
       <c r="G515" t="s">
-        <v>1878</v>
+        <v>1842</v>
       </c>
       <c r="H515" t="s">
         <v>1796</v>
       </c>
       <c r="I515" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="J515" t="s">
         <v>1798</v>
       </c>
       <c r="K515" t="s">
-        <v>1880</v>
+        <v>1844</v>
       </c>
       <c r="L515" t="s">
         <v>1800</v>
       </c>
       <c r="M515" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="N515"/>
       <c r="O515" t="s">
@@ -28429,7 +28432,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="B516"/>
       <c r="C516"/>
@@ -28441,25 +28444,25 @@
         <v>1794</v>
       </c>
       <c r="G516" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H516" t="s">
         <v>1796</v>
       </c>
       <c r="I516" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="J516" t="s">
         <v>1798</v>
       </c>
       <c r="K516" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L516" t="s">
         <v>1800</v>
       </c>
       <c r="M516" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="N516"/>
       <c r="O516" t="s">
@@ -28471,7 +28474,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B517"/>
       <c r="C517"/>
@@ -28483,25 +28486,25 @@
         <v>1794</v>
       </c>
       <c r="G517" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H517" t="s">
         <v>1796</v>
       </c>
       <c r="I517" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="J517" t="s">
         <v>1798</v>
       </c>
       <c r="K517" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L517" t="s">
         <v>1800</v>
       </c>
       <c r="M517" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="N517"/>
       <c r="O517" t="s">
@@ -28513,7 +28516,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B518"/>
       <c r="C518"/>
@@ -28525,25 +28528,25 @@
         <v>1794</v>
       </c>
       <c r="G518" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H518" t="s">
         <v>1796</v>
       </c>
       <c r="I518" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="J518" t="s">
         <v>1798</v>
       </c>
       <c r="K518" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L518" t="s">
         <v>1800</v>
       </c>
       <c r="M518" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="N518"/>
       <c r="O518" t="s">
@@ -28555,37 +28558,37 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519" t="s">
-        <v>1892</v>
+        <v>531</v>
       </c>
       <c r="F519" t="s">
         <v>1794</v>
       </c>
       <c r="G519" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H519" t="s">
-        <v>1893</v>
+        <v>1796</v>
       </c>
       <c r="I519" t="s">
-        <v>1805</v>
+        <v>1890</v>
       </c>
       <c r="J519" t="s">
         <v>1798</v>
       </c>
       <c r="K519" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L519" t="s">
-        <v>1894</v>
+        <v>1800</v>
       </c>
       <c r="M519" t="s">
-        <v>1806</v>
+        <v>1891</v>
       </c>
       <c r="N519"/>
       <c r="O519" t="s">
@@ -28597,37 +28600,37 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F520" t="s">
         <v>1794</v>
       </c>
       <c r="G520" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H520" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I520" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="J520" t="s">
         <v>1798</v>
       </c>
       <c r="K520" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L520" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M520" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="N520"/>
       <c r="O520" t="s">
@@ -28645,31 +28648,31 @@
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F521" t="s">
         <v>1794</v>
       </c>
       <c r="G521" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H521" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I521" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="J521" t="s">
         <v>1798</v>
       </c>
       <c r="K521" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L521" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M521" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="N521"/>
       <c r="O521" t="s">
@@ -28687,31 +28690,31 @@
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F522" t="s">
         <v>1794</v>
       </c>
       <c r="G522" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H522" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I522" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="J522" t="s">
         <v>1798</v>
       </c>
       <c r="K522" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L522" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M522" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N522"/>
       <c r="O522" t="s">
@@ -28729,31 +28732,31 @@
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F523" t="s">
         <v>1794</v>
       </c>
       <c r="G523" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H523" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I523" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J523" t="s">
         <v>1798</v>
       </c>
       <c r="K523" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L523" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M523" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="N523"/>
       <c r="O523" t="s">
@@ -28771,31 +28774,31 @@
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="F524" t="s">
         <v>1794</v>
       </c>
       <c r="G524" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H524" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I524" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J524" t="s">
         <v>1798</v>
       </c>
       <c r="K524" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L524" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M524" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="N524"/>
       <c r="O524" t="s">
@@ -28807,37 +28810,37 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525" t="s">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="F525" t="s">
         <v>1794</v>
       </c>
       <c r="G525" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H525" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I525" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J525" t="s">
         <v>1798</v>
       </c>
       <c r="K525" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="L525" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M525" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="N525"/>
       <c r="O525" t="s">
@@ -28855,31 +28858,31 @@
       <c r="C526"/>
       <c r="D526"/>
       <c r="E526" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="F526" t="s">
         <v>1794</v>
       </c>
       <c r="G526" t="s">
-        <v>1904</v>
+        <v>1879</v>
       </c>
       <c r="H526" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I526" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J526" t="s">
         <v>1798</v>
       </c>
       <c r="K526" t="s">
-        <v>1905</v>
+        <v>1881</v>
       </c>
       <c r="L526" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M526" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="N526"/>
       <c r="O526" t="s">
@@ -28891,37 +28894,37 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B527"/>
       <c r="C527"/>
       <c r="D527"/>
       <c r="E527" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F527" t="s">
         <v>1794</v>
       </c>
       <c r="G527" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H527" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I527" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J527" t="s">
         <v>1798</v>
       </c>
       <c r="K527" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L527" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M527" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N527"/>
       <c r="O527" t="s">
@@ -28939,31 +28942,31 @@
       <c r="C528"/>
       <c r="D528"/>
       <c r="E528" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F528" t="s">
         <v>1794</v>
       </c>
       <c r="G528" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H528" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I528" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J528" t="s">
         <v>1798</v>
       </c>
       <c r="K528" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L528" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M528" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N528"/>
       <c r="O528" t="s">
@@ -28981,31 +28984,31 @@
       <c r="C529"/>
       <c r="D529"/>
       <c r="E529" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F529" t="s">
         <v>1794</v>
       </c>
       <c r="G529" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H529" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I529" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J529" t="s">
         <v>1798</v>
       </c>
       <c r="K529" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L529" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M529" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N529"/>
       <c r="O529" t="s">
@@ -29023,31 +29026,31 @@
       <c r="C530"/>
       <c r="D530"/>
       <c r="E530" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F530" t="s">
         <v>1794</v>
       </c>
       <c r="G530" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H530" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I530" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J530" t="s">
         <v>1798</v>
       </c>
       <c r="K530" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L530" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M530" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="N530"/>
       <c r="O530" t="s">
@@ -29065,31 +29068,31 @@
       <c r="C531"/>
       <c r="D531"/>
       <c r="E531" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="F531" t="s">
         <v>1794</v>
       </c>
       <c r="G531" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H531" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I531" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="J531" t="s">
         <v>1798</v>
       </c>
       <c r="K531" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L531" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M531" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="N531"/>
       <c r="O531" t="s">
@@ -29101,37 +29104,37 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B532"/>
       <c r="C532"/>
       <c r="D532"/>
       <c r="E532" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F532" t="s">
         <v>1794</v>
       </c>
       <c r="G532" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H532" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I532" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="J532" t="s">
         <v>1798</v>
       </c>
       <c r="K532" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L532" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M532" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="N532"/>
       <c r="O532" t="s">
@@ -29149,31 +29152,31 @@
       <c r="C533"/>
       <c r="D533"/>
       <c r="E533" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F533" t="s">
         <v>1794</v>
       </c>
       <c r="G533" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H533" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I533" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="J533" t="s">
         <v>1798</v>
       </c>
       <c r="K533" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L533" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M533" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="N533"/>
       <c r="O533" t="s">
@@ -29191,31 +29194,31 @@
       <c r="C534"/>
       <c r="D534"/>
       <c r="E534" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F534" t="s">
         <v>1794</v>
       </c>
       <c r="G534" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="H534" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I534" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="J534" t="s">
         <v>1798</v>
       </c>
       <c r="K534" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="L534" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M534" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="N534"/>
       <c r="O534" t="s">
@@ -29227,37 +29230,37 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B535"/>
       <c r="C535"/>
       <c r="D535"/>
       <c r="E535" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F535" t="s">
         <v>1794</v>
       </c>
       <c r="G535" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H535" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I535" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="J535" t="s">
         <v>1798</v>
       </c>
       <c r="K535" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L535" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M535" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="N535"/>
       <c r="O535" t="s">
@@ -29275,31 +29278,31 @@
       <c r="C536"/>
       <c r="D536"/>
       <c r="E536" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F536" t="s">
         <v>1794</v>
       </c>
       <c r="G536" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H536" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I536" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="J536" t="s">
         <v>1798</v>
       </c>
       <c r="K536" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L536" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M536" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="N536"/>
       <c r="O536" t="s">
@@ -29317,31 +29320,31 @@
       <c r="C537"/>
       <c r="D537"/>
       <c r="E537" t="s">
-        <v>1903</v>
+        <v>1912</v>
       </c>
       <c r="F537" t="s">
         <v>1794</v>
       </c>
       <c r="G537" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H537" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I537" t="s">
-        <v>1826</v>
+        <v>1862</v>
       </c>
       <c r="J537" t="s">
         <v>1798</v>
       </c>
       <c r="K537" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L537" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M537" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="N537"/>
       <c r="O537" t="s">
@@ -29359,31 +29362,31 @@
       <c r="C538"/>
       <c r="D538"/>
       <c r="E538" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F538" t="s">
         <v>1794</v>
       </c>
       <c r="G538" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H538" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I538" t="s">
-        <v>1866</v>
+        <v>1827</v>
       </c>
       <c r="J538" t="s">
         <v>1798</v>
       </c>
       <c r="K538" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L538" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M538" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="N538"/>
       <c r="O538" t="s">
@@ -29401,31 +29404,31 @@
       <c r="C539"/>
       <c r="D539"/>
       <c r="E539" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F539" t="s">
         <v>1794</v>
       </c>
       <c r="G539" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H539" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I539" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J539" t="s">
         <v>1798</v>
       </c>
       <c r="K539" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L539" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M539" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="N539"/>
       <c r="O539" t="s">
@@ -29443,31 +29446,31 @@
       <c r="C540"/>
       <c r="D540"/>
       <c r="E540" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="F540" t="s">
         <v>1794</v>
       </c>
       <c r="G540" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H540" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I540" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="J540" t="s">
         <v>1798</v>
       </c>
       <c r="K540" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L540" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="M540" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="N540"/>
       <c r="O540" t="s">
@@ -29479,37 +29482,37 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B541"/>
       <c r="C541"/>
       <c r="D541"/>
       <c r="E541" t="s">
-        <v>1892</v>
+        <v>1924</v>
       </c>
       <c r="F541" t="s">
         <v>1794</v>
       </c>
       <c r="G541" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H541" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I541" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="J541" t="s">
         <v>1798</v>
       </c>
       <c r="K541" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L541" t="s">
-        <v>1800</v>
+        <v>1895</v>
       </c>
       <c r="M541" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="N541"/>
       <c r="O541" t="s">
@@ -29527,31 +29530,31 @@
       <c r="C542"/>
       <c r="D542"/>
       <c r="E542" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="F542" t="s">
         <v>1794</v>
       </c>
       <c r="G542" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H542" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I542" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="J542" t="s">
         <v>1798</v>
       </c>
       <c r="K542" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L542" t="s">
         <v>1800</v>
       </c>
       <c r="M542" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="N542"/>
       <c r="O542" t="s">
@@ -29569,31 +29572,31 @@
       <c r="C543"/>
       <c r="D543"/>
       <c r="E543" t="s">
-        <v>1892</v>
+        <v>1904</v>
       </c>
       <c r="F543" t="s">
         <v>1794</v>
       </c>
       <c r="G543" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H543" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I543" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="J543" t="s">
         <v>1798</v>
       </c>
       <c r="K543" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="L543" t="s">
         <v>1800</v>
       </c>
       <c r="M543" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="N543"/>
       <c r="O543" t="s">
@@ -29611,31 +29614,31 @@
       <c r="C544"/>
       <c r="D544"/>
       <c r="E544" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F544" t="s">
         <v>1794</v>
       </c>
       <c r="G544" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
       <c r="H544" t="s">
-        <v>1929</v>
+        <v>1894</v>
       </c>
       <c r="I544" t="s">
-        <v>1805</v>
+        <v>1890</v>
       </c>
       <c r="J544" t="s">
         <v>1798</v>
       </c>
       <c r="K544" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
       <c r="L544" t="s">
-        <v>1931</v>
+        <v>1800</v>
       </c>
       <c r="M544" t="s">
-        <v>1806</v>
+        <v>1891</v>
       </c>
       <c r="N544"/>
       <c r="O544" t="s">
@@ -29647,37 +29650,37 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="B545"/>
       <c r="C545"/>
       <c r="D545"/>
       <c r="E545" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F545" t="s">
         <v>1794</v>
       </c>
       <c r="G545" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H545" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I545" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="J545" t="s">
         <v>1798</v>
       </c>
       <c r="K545" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L545" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M545" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="N545"/>
       <c r="O545" t="s">
@@ -29695,31 +29698,31 @@
       <c r="C546"/>
       <c r="D546"/>
       <c r="E546" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F546" t="s">
         <v>1794</v>
       </c>
       <c r="G546" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H546" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I546" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="J546" t="s">
         <v>1798</v>
       </c>
       <c r="K546" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L546" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M546" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="N546"/>
       <c r="O546" t="s">
@@ -29737,31 +29740,31 @@
       <c r="C547"/>
       <c r="D547"/>
       <c r="E547" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F547" t="s">
         <v>1794</v>
       </c>
       <c r="G547" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H547" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I547" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="J547" t="s">
         <v>1798</v>
       </c>
       <c r="K547" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L547" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M547" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N547"/>
       <c r="O547" t="s">
@@ -29779,31 +29782,31 @@
       <c r="C548"/>
       <c r="D548"/>
       <c r="E548" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F548" t="s">
         <v>1794</v>
       </c>
       <c r="G548" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H548" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I548" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J548" t="s">
         <v>1798</v>
       </c>
       <c r="K548" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L548" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M548" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="N548"/>
       <c r="O548" t="s">
@@ -29821,31 +29824,31 @@
       <c r="C549"/>
       <c r="D549"/>
       <c r="E549" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="F549" t="s">
         <v>1794</v>
       </c>
       <c r="G549" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H549" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I549" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J549" t="s">
         <v>1798</v>
       </c>
       <c r="K549" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L549" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M549" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="N549"/>
       <c r="O549" t="s">
@@ -29863,31 +29866,31 @@
       <c r="C550"/>
       <c r="D550"/>
       <c r="E550" t="s">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="F550" t="s">
         <v>1794</v>
       </c>
       <c r="G550" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H550" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I550" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J550" t="s">
         <v>1798</v>
       </c>
       <c r="K550" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L550" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M550" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="N550"/>
       <c r="O550" t="s">
@@ -29905,31 +29908,31 @@
       <c r="C551"/>
       <c r="D551"/>
       <c r="E551" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="F551" t="s">
         <v>1794</v>
       </c>
       <c r="G551" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H551" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I551" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J551" t="s">
         <v>1798</v>
       </c>
       <c r="K551" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L551" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M551" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="N551"/>
       <c r="O551" t="s">
@@ -29947,31 +29950,31 @@
       <c r="C552"/>
       <c r="D552"/>
       <c r="E552" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F552" t="s">
         <v>1794</v>
       </c>
       <c r="G552" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H552" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I552" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J552" t="s">
         <v>1798</v>
       </c>
       <c r="K552" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L552" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M552" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N552"/>
       <c r="O552" t="s">
@@ -29989,31 +29992,31 @@
       <c r="C553"/>
       <c r="D553"/>
       <c r="E553" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F553" t="s">
         <v>1794</v>
       </c>
       <c r="G553" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H553" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I553" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J553" t="s">
         <v>1798</v>
       </c>
       <c r="K553" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L553" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M553" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N553"/>
       <c r="O553" t="s">
@@ -30031,31 +30034,31 @@
       <c r="C554"/>
       <c r="D554"/>
       <c r="E554" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F554" t="s">
         <v>1794</v>
       </c>
       <c r="G554" t="s">
-        <v>1942</v>
+        <v>1929</v>
       </c>
       <c r="H554" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I554" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J554" t="s">
         <v>1798</v>
       </c>
       <c r="K554" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
       <c r="L554" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M554" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N554"/>
       <c r="O554" t="s">
@@ -30067,37 +30070,37 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B555"/>
       <c r="C555"/>
       <c r="D555"/>
       <c r="E555" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F555" t="s">
         <v>1794</v>
       </c>
       <c r="G555" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H555" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="I555" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J555" t="s">
         <v>1798</v>
       </c>
       <c r="K555" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L555" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="M555" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="N555"/>
       <c r="O555" t="s">
@@ -30115,31 +30118,31 @@
       <c r="C556"/>
       <c r="D556"/>
       <c r="E556" t="s">
-        <v>1892</v>
+        <v>1904</v>
       </c>
       <c r="F556" t="s">
         <v>1794</v>
       </c>
       <c r="G556" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H556" t="s">
-        <v>1946</v>
+        <v>1930</v>
       </c>
       <c r="I556" t="s">
-        <v>1805</v>
+        <v>1839</v>
       </c>
       <c r="J556" t="s">
         <v>1798</v>
       </c>
       <c r="K556" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L556" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="M556" t="s">
-        <v>1806</v>
+        <v>1840</v>
       </c>
       <c r="N556"/>
       <c r="O556" t="s">
@@ -30151,37 +30154,37 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B557"/>
       <c r="C557"/>
       <c r="D557"/>
       <c r="E557" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F557" t="s">
         <v>1794</v>
       </c>
       <c r="G557" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H557" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I557" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="J557" t="s">
         <v>1798</v>
       </c>
       <c r="K557" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L557" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M557" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="N557"/>
       <c r="O557" t="s">
@@ -30199,31 +30202,31 @@
       <c r="C558"/>
       <c r="D558"/>
       <c r="E558" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F558" t="s">
         <v>1794</v>
       </c>
       <c r="G558" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H558" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I558" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="J558" t="s">
         <v>1798</v>
       </c>
       <c r="K558" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L558" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M558" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="N558"/>
       <c r="O558" t="s">
@@ -30241,31 +30244,31 @@
       <c r="C559"/>
       <c r="D559"/>
       <c r="E559" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F559" t="s">
         <v>1794</v>
       </c>
       <c r="G559" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H559" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I559" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="J559" t="s">
         <v>1798</v>
       </c>
       <c r="K559" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L559" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M559" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N559"/>
       <c r="O559" t="s">
@@ -30283,31 +30286,31 @@
       <c r="C560"/>
       <c r="D560"/>
       <c r="E560" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F560" t="s">
         <v>1794</v>
       </c>
       <c r="G560" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H560" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I560" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J560" t="s">
         <v>1798</v>
       </c>
       <c r="K560" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L560" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M560" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="N560"/>
       <c r="O560" t="s">
@@ -30325,31 +30328,31 @@
       <c r="C561"/>
       <c r="D561"/>
       <c r="E561" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="F561" t="s">
         <v>1794</v>
       </c>
       <c r="G561" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H561" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I561" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J561" t="s">
         <v>1798</v>
       </c>
       <c r="K561" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L561" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M561" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="N561"/>
       <c r="O561" t="s">
@@ -30367,31 +30370,31 @@
       <c r="C562"/>
       <c r="D562"/>
       <c r="E562" t="s">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="F562" t="s">
         <v>1794</v>
       </c>
       <c r="G562" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H562" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I562" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J562" t="s">
         <v>1798</v>
       </c>
       <c r="K562" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L562" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M562" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="N562"/>
       <c r="O562" t="s">
@@ -30409,31 +30412,31 @@
       <c r="C563"/>
       <c r="D563"/>
       <c r="E563" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="F563" t="s">
         <v>1794</v>
       </c>
       <c r="G563" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H563" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I563" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J563" t="s">
         <v>1798</v>
       </c>
       <c r="K563" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L563" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M563" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="N563"/>
       <c r="O563" t="s">
@@ -30451,31 +30454,31 @@
       <c r="C564"/>
       <c r="D564"/>
       <c r="E564" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F564" t="s">
         <v>1794</v>
       </c>
       <c r="G564" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H564" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I564" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J564" t="s">
         <v>1798</v>
       </c>
       <c r="K564" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L564" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M564" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N564"/>
       <c r="O564" t="s">
@@ -30493,31 +30496,31 @@
       <c r="C565"/>
       <c r="D565"/>
       <c r="E565" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F565" t="s">
         <v>1794</v>
       </c>
       <c r="G565" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H565" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I565" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J565" t="s">
         <v>1798</v>
       </c>
       <c r="K565" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L565" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M565" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N565"/>
       <c r="O565" t="s">
@@ -30535,31 +30538,31 @@
       <c r="C566"/>
       <c r="D566"/>
       <c r="E566" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F566" t="s">
         <v>1794</v>
       </c>
       <c r="G566" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="H566" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I566" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J566" t="s">
         <v>1798</v>
       </c>
       <c r="K566" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="L566" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M566" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N566"/>
       <c r="O566" t="s">
@@ -30571,37 +30574,37 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B567"/>
       <c r="C567"/>
       <c r="D567"/>
       <c r="E567" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F567" t="s">
         <v>1794</v>
       </c>
       <c r="G567" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H567" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I567" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J567" t="s">
         <v>1798</v>
       </c>
       <c r="K567" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L567" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M567" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="N567"/>
       <c r="O567" t="s">
@@ -30619,31 +30622,31 @@
       <c r="C568"/>
       <c r="D568"/>
       <c r="E568" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="F568" t="s">
         <v>1794</v>
       </c>
       <c r="G568" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H568" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I568" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="J568" t="s">
         <v>1798</v>
       </c>
       <c r="K568" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L568" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M568" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="N568"/>
       <c r="O568" t="s">
@@ -30661,31 +30664,31 @@
       <c r="C569"/>
       <c r="D569"/>
       <c r="E569" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="F569" t="s">
         <v>1794</v>
       </c>
       <c r="G569" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H569" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I569" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="J569" t="s">
         <v>1798</v>
       </c>
       <c r="K569" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L569" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M569" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="N569"/>
       <c r="O569" t="s">
@@ -30703,31 +30706,31 @@
       <c r="C570"/>
       <c r="D570"/>
       <c r="E570" t="s">
-        <v>1964</v>
+        <v>1912</v>
       </c>
       <c r="F570" t="s">
         <v>1794</v>
       </c>
       <c r="G570" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H570" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="I570" t="s">
-        <v>1805</v>
+        <v>1859</v>
       </c>
       <c r="J570" t="s">
         <v>1798</v>
       </c>
       <c r="K570" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L570" t="s">
-        <v>1966</v>
+        <v>1948</v>
       </c>
       <c r="M570" t="s">
-        <v>1806</v>
+        <v>1860</v>
       </c>
       <c r="N570"/>
       <c r="O570" t="s">
@@ -30739,37 +30742,37 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B571"/>
       <c r="C571"/>
       <c r="D571"/>
       <c r="E571" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F571" t="s">
         <v>1794</v>
       </c>
       <c r="G571" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H571" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I571" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="J571" t="s">
         <v>1798</v>
       </c>
       <c r="K571" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L571" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M571" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="N571"/>
       <c r="O571" t="s">
@@ -30787,31 +30790,31 @@
       <c r="C572"/>
       <c r="D572"/>
       <c r="E572" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F572" t="s">
         <v>1794</v>
       </c>
       <c r="G572" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H572" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I572" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="J572" t="s">
         <v>1798</v>
       </c>
       <c r="K572" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L572" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M572" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="N572"/>
       <c r="O572" t="s">
@@ -30829,31 +30832,31 @@
       <c r="C573"/>
       <c r="D573"/>
       <c r="E573" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F573" t="s">
         <v>1794</v>
       </c>
       <c r="G573" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H573" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I573" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="J573" t="s">
         <v>1798</v>
       </c>
       <c r="K573" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L573" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M573" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="N573"/>
       <c r="O573" t="s">
@@ -30871,31 +30874,31 @@
       <c r="C574"/>
       <c r="D574"/>
       <c r="E574" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F574" t="s">
         <v>1794</v>
       </c>
       <c r="G574" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="H574" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I574" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J574" t="s">
         <v>1798</v>
       </c>
       <c r="K574" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L574" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M574" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="N574"/>
       <c r="O574" t="s">
@@ -30913,31 +30916,31 @@
       <c r="C575"/>
       <c r="D575"/>
       <c r="E575" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F575" t="s">
         <v>1794</v>
       </c>
       <c r="G575" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
       <c r="H575" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I575" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="J575" t="s">
         <v>1798</v>
       </c>
       <c r="K575" t="s">
-        <v>1973</v>
+        <v>1960</v>
       </c>
       <c r="L575" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M575" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="N575"/>
       <c r="O575" t="s">
@@ -30949,37 +30952,37 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B576"/>
       <c r="C576"/>
       <c r="D576"/>
       <c r="E576" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F576" t="s">
         <v>1794</v>
       </c>
       <c r="G576" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H576" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I576" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J576" t="s">
         <v>1798</v>
       </c>
       <c r="K576" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L576" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M576" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N576"/>
       <c r="O576" t="s">
@@ -30997,31 +31000,31 @@
       <c r="C577"/>
       <c r="D577"/>
       <c r="E577" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F577" t="s">
         <v>1794</v>
       </c>
       <c r="G577" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H577" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I577" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J577" t="s">
         <v>1798</v>
       </c>
       <c r="K577" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L577" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M577" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="N577"/>
       <c r="O577" t="s">
@@ -31039,31 +31042,31 @@
       <c r="C578"/>
       <c r="D578"/>
       <c r="E578" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F578" t="s">
         <v>1794</v>
       </c>
       <c r="G578" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H578" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I578" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J578" t="s">
         <v>1798</v>
       </c>
       <c r="K578" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L578" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M578" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="N578"/>
       <c r="O578" t="s">
@@ -31081,31 +31084,31 @@
       <c r="C579"/>
       <c r="D579"/>
       <c r="E579" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F579" t="s">
         <v>1794</v>
       </c>
       <c r="G579" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H579" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I579" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J579" t="s">
         <v>1798</v>
       </c>
       <c r="K579" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L579" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M579" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="N579"/>
       <c r="O579" t="s">
@@ -31123,31 +31126,31 @@
       <c r="C580"/>
       <c r="D580"/>
       <c r="E580" t="s">
-        <v>1979</v>
+        <v>1965</v>
       </c>
       <c r="F580" t="s">
         <v>1794</v>
       </c>
       <c r="G580" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H580" t="s">
-        <v>1137</v>
+        <v>1966</v>
       </c>
       <c r="I580" t="s">
-        <v>1883</v>
+        <v>1839</v>
       </c>
       <c r="J580" t="s">
         <v>1798</v>
       </c>
       <c r="K580" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L580" t="s">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="M580" t="s">
-        <v>1884</v>
+        <v>1840</v>
       </c>
       <c r="N580"/>
       <c r="O580" t="s">
@@ -31159,37 +31162,37 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B581"/>
       <c r="C581"/>
       <c r="D581"/>
       <c r="E581" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="F581" t="s">
         <v>1794</v>
       </c>
       <c r="G581" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H581" t="s">
         <v>1137</v>
       </c>
       <c r="I581" t="s">
-        <v>1982</v>
+        <v>1884</v>
       </c>
       <c r="J581" t="s">
         <v>1798</v>
       </c>
       <c r="K581" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L581" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M581" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="N581"/>
       <c r="O581" t="s">
@@ -31201,43 +31204,85 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B582"/>
       <c r="C582"/>
       <c r="D582"/>
       <c r="E582" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="F582" t="s">
         <v>1794</v>
       </c>
       <c r="G582" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H582" t="s">
         <v>1137</v>
       </c>
       <c r="I582" t="s">
-        <v>1889</v>
+        <v>1983</v>
       </c>
       <c r="J582" t="s">
         <v>1798</v>
       </c>
       <c r="K582" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="L582" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M582" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="N582"/>
       <c r="O582" t="s">
         <v>1802</v>
       </c>
       <c r="P582" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B583"/>
+      <c r="C583"/>
+      <c r="D583"/>
+      <c r="E583" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G583" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H583" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I583" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1974</v>
+      </c>
+      <c r="L583" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M583" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N583"/>
+      <c r="O583" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P583" t="s">
         <v>1803</v>
       </c>
     </row>

--- a/data-raw/varsOut.xlsx
+++ b/data-raw/varsOut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1991">
   <si>
     <t xml:space="preserve">variables</t>
   </si>
@@ -5463,10 +5463,19 @@
     <t xml:space="preserve">种牛场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t1_zcqc_znnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">znnc</t>
+    <t xml:space="preserve">v8_t1_zcqc_znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种乳牛场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t1_zcqc_znnc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">znnc2</t>
   </si>
   <si>
     <t xml:space="preserve">种奶牛场</t>
@@ -5478,9 +5487,6 @@
     <t xml:space="preserve">zrnc</t>
   </si>
   <si>
-    <t xml:space="preserve">种乳牛场</t>
-  </si>
-  <si>
     <t xml:space="preserve">种肉牛场</t>
   </si>
   <si>
@@ -5730,7 +5736,10 @@
     <t xml:space="preserve">年末存栏</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t3_nmcl_znnc</t>
+    <t xml:space="preserve">v8_t3_nmcl_znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t3_nmcl_znnc2</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t3_nmcl_zrnc</t>
@@ -5841,7 +5850,10 @@
     <t xml:space="preserve">能繁母畜存栏</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t6_nfmccl_znnc</t>
+    <t xml:space="preserve">v8_t6_nfmccl_znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t6_nfmccl_znnc2</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t6_nfmccl_zrnc</t>
@@ -5889,7 +5901,10 @@
     <t xml:space="preserve">出场种畜禽</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t7_cczcq_znnc</t>
+    <t xml:space="preserve">v8_t7_cczcq_znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t7_cczcq_znnc2</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t7_cczcq_zrnc</t>
@@ -5946,7 +5961,10 @@
     <t xml:space="preserve">生产胚胎</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t8_scpt_znnc</t>
+    <t xml:space="preserve">v8_t8_scpt_znnc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t8_scpt_znnc2</t>
   </si>
   <si>
     <t xml:space="preserve">v8_t8_scpt_zrnc</t>
@@ -27508,7 +27526,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B494"/>
       <c r="C494"/>
@@ -27526,7 +27544,7 @@
         <v>1796</v>
       </c>
       <c r="I494" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="J494" t="s">
         <v>1798</v>
@@ -27538,7 +27556,7 @@
         <v>1800</v>
       </c>
       <c r="M494" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="N494"/>
       <c r="O494" t="s">
@@ -27550,7 +27568,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B495"/>
       <c r="C495"/>
@@ -27568,7 +27586,7 @@
         <v>1796</v>
       </c>
       <c r="I495" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J495" t="s">
         <v>1798</v>
@@ -27580,7 +27598,7 @@
         <v>1800</v>
       </c>
       <c r="M495" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="N495"/>
       <c r="O495" t="s">
@@ -27592,7 +27610,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="B496"/>
       <c r="C496"/>
@@ -27610,7 +27628,7 @@
         <v>1796</v>
       </c>
       <c r="I496" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="J496" t="s">
         <v>1798</v>
@@ -27622,7 +27640,7 @@
         <v>1800</v>
       </c>
       <c r="M496" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="N496"/>
       <c r="O496" t="s">
@@ -27634,7 +27652,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B497"/>
       <c r="C497"/>
@@ -27652,7 +27670,7 @@
         <v>1796</v>
       </c>
       <c r="I497" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="J497" t="s">
         <v>1798</v>
@@ -27664,7 +27682,7 @@
         <v>1800</v>
       </c>
       <c r="M497" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="N497"/>
       <c r="O497" t="s">
@@ -27676,7 +27694,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B498"/>
       <c r="C498"/>
@@ -27694,7 +27712,7 @@
         <v>1796</v>
       </c>
       <c r="I498" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="J498" t="s">
         <v>1798</v>
@@ -27706,7 +27724,7 @@
         <v>1800</v>
       </c>
       <c r="M498" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="N498"/>
       <c r="O498" t="s">
@@ -27718,7 +27736,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B499"/>
       <c r="C499"/>
@@ -27736,7 +27754,7 @@
         <v>1796</v>
       </c>
       <c r="I499" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J499" t="s">
         <v>1798</v>
@@ -27748,7 +27766,7 @@
         <v>1800</v>
       </c>
       <c r="M499" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="N499"/>
       <c r="O499" t="s">
@@ -27760,7 +27778,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="B500"/>
       <c r="C500"/>
@@ -27778,7 +27796,7 @@
         <v>1796</v>
       </c>
       <c r="I500" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="J500" t="s">
         <v>1798</v>
@@ -27790,7 +27808,7 @@
         <v>1800</v>
       </c>
       <c r="M500" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="N500"/>
       <c r="O500" t="s">
@@ -27802,7 +27820,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B501"/>
       <c r="C501"/>
@@ -27820,7 +27838,7 @@
         <v>1796</v>
       </c>
       <c r="I501" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="J501" t="s">
         <v>1798</v>
@@ -27832,7 +27850,7 @@
         <v>1800</v>
       </c>
       <c r="M501" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="N501"/>
       <c r="O501" t="s">
@@ -27844,7 +27862,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B502"/>
       <c r="C502"/>
@@ -27862,7 +27880,7 @@
         <v>1796</v>
       </c>
       <c r="I502" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J502" t="s">
         <v>1798</v>
@@ -27874,7 +27892,7 @@
         <v>1800</v>
       </c>
       <c r="M502" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="N502"/>
       <c r="O502" t="s">
@@ -27886,7 +27904,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B503"/>
       <c r="C503"/>
@@ -27904,7 +27922,7 @@
         <v>1796</v>
       </c>
       <c r="I503" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="J503" t="s">
         <v>1798</v>
@@ -27916,7 +27934,7 @@
         <v>1800</v>
       </c>
       <c r="M503" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="N503"/>
       <c r="O503" t="s">
@@ -27928,7 +27946,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B504"/>
       <c r="C504"/>
@@ -27940,25 +27958,25 @@
         <v>1794</v>
       </c>
       <c r="G504" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H504" t="s">
         <v>1796</v>
       </c>
       <c r="I504" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="J504" t="s">
         <v>1798</v>
       </c>
       <c r="K504" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L504" t="s">
         <v>1800</v>
       </c>
       <c r="M504" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="N504"/>
       <c r="O504" t="s">
@@ -27970,7 +27988,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B505"/>
       <c r="C505"/>
@@ -27982,25 +28000,25 @@
         <v>1794</v>
       </c>
       <c r="G505" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H505" t="s">
         <v>1796</v>
       </c>
       <c r="I505" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="J505" t="s">
         <v>1798</v>
       </c>
       <c r="K505" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L505" t="s">
         <v>1800</v>
       </c>
       <c r="M505" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="N505"/>
       <c r="O505" t="s">
@@ -28012,7 +28030,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B506"/>
       <c r="C506"/>
@@ -28024,25 +28042,25 @@
         <v>1794</v>
       </c>
       <c r="G506" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H506" t="s">
         <v>1796</v>
       </c>
       <c r="I506" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="J506" t="s">
         <v>1798</v>
       </c>
       <c r="K506" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L506" t="s">
         <v>1800</v>
       </c>
       <c r="M506" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="N506"/>
       <c r="O506" t="s">
@@ -28054,7 +28072,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B507"/>
       <c r="C507"/>
@@ -28066,25 +28084,25 @@
         <v>1794</v>
       </c>
       <c r="G507" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H507" t="s">
         <v>1796</v>
       </c>
       <c r="I507" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="J507" t="s">
         <v>1798</v>
       </c>
       <c r="K507" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L507" t="s">
         <v>1800</v>
       </c>
       <c r="M507" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="N507"/>
       <c r="O507" t="s">
@@ -28096,7 +28114,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B508"/>
       <c r="C508"/>
@@ -28108,25 +28126,25 @@
         <v>1794</v>
       </c>
       <c r="G508" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H508" t="s">
         <v>1796</v>
       </c>
       <c r="I508" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="J508" t="s">
         <v>1798</v>
       </c>
       <c r="K508" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L508" t="s">
         <v>1800</v>
       </c>
       <c r="M508" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="N508"/>
       <c r="O508" t="s">
@@ -28138,7 +28156,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B509"/>
       <c r="C509"/>
@@ -28150,25 +28168,25 @@
         <v>1794</v>
       </c>
       <c r="G509" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H509" t="s">
         <v>1796</v>
       </c>
       <c r="I509" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="J509" t="s">
         <v>1798</v>
       </c>
       <c r="K509" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L509" t="s">
         <v>1800</v>
       </c>
       <c r="M509" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="N509"/>
       <c r="O509" t="s">
@@ -28180,7 +28198,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B510"/>
       <c r="C510"/>
@@ -28192,25 +28210,25 @@
         <v>1794</v>
       </c>
       <c r="G510" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H510" t="s">
         <v>1796</v>
       </c>
       <c r="I510" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="J510" t="s">
         <v>1798</v>
       </c>
       <c r="K510" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L510" t="s">
         <v>1800</v>
       </c>
       <c r="M510" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="N510"/>
       <c r="O510" t="s">
@@ -28222,7 +28240,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B511"/>
       <c r="C511"/>
@@ -28234,25 +28252,25 @@
         <v>1794</v>
       </c>
       <c r="G511" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H511" t="s">
         <v>1796</v>
       </c>
       <c r="I511" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="J511" t="s">
         <v>1798</v>
       </c>
       <c r="K511" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L511" t="s">
         <v>1800</v>
       </c>
       <c r="M511" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="N511"/>
       <c r="O511" t="s">
@@ -28264,7 +28282,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B512"/>
       <c r="C512"/>
@@ -28276,25 +28294,25 @@
         <v>1794</v>
       </c>
       <c r="G512" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H512" t="s">
         <v>1796</v>
       </c>
       <c r="I512" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="J512" t="s">
         <v>1798</v>
       </c>
       <c r="K512" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L512" t="s">
         <v>1800</v>
       </c>
       <c r="M512" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="N512"/>
       <c r="O512" t="s">
@@ -28306,7 +28324,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B513"/>
       <c r="C513"/>
@@ -28318,25 +28336,25 @@
         <v>1794</v>
       </c>
       <c r="G513" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H513" t="s">
         <v>1796</v>
       </c>
       <c r="I513" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J513" t="s">
         <v>1798</v>
       </c>
       <c r="K513" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L513" t="s">
         <v>1800</v>
       </c>
       <c r="M513" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="N513"/>
       <c r="O513" t="s">
@@ -28348,7 +28366,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B514"/>
       <c r="C514"/>
@@ -28360,25 +28378,25 @@
         <v>1794</v>
       </c>
       <c r="G514" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H514" t="s">
         <v>1796</v>
       </c>
       <c r="I514" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="J514" t="s">
         <v>1798</v>
       </c>
       <c r="K514" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L514" t="s">
         <v>1800</v>
       </c>
       <c r="M514" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="N514"/>
       <c r="O514" t="s">
@@ -28390,7 +28408,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B515"/>
       <c r="C515"/>
@@ -28402,25 +28420,25 @@
         <v>1794</v>
       </c>
       <c r="G515" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="H515" t="s">
         <v>1796</v>
       </c>
       <c r="I515" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="J515" t="s">
         <v>1798</v>
       </c>
       <c r="K515" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="L515" t="s">
         <v>1800</v>
       </c>
       <c r="M515" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="N515"/>
       <c r="O515" t="s">
@@ -28432,7 +28450,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B516"/>
       <c r="C516"/>
@@ -28444,25 +28462,25 @@
         <v>1794</v>
       </c>
       <c r="G516" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H516" t="s">
         <v>1796</v>
       </c>
       <c r="I516" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="J516" t="s">
         <v>1798</v>
       </c>
       <c r="K516" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L516" t="s">
         <v>1800</v>
       </c>
       <c r="M516" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="N516"/>
       <c r="O516" t="s">
@@ -28474,7 +28492,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B517"/>
       <c r="C517"/>
@@ -28486,25 +28504,25 @@
         <v>1794</v>
       </c>
       <c r="G517" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H517" t="s">
         <v>1796</v>
       </c>
       <c r="I517" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J517" t="s">
         <v>1798</v>
       </c>
       <c r="K517" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L517" t="s">
         <v>1800</v>
       </c>
       <c r="M517" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="N517"/>
       <c r="O517" t="s">
@@ -28516,7 +28534,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B518"/>
       <c r="C518"/>
@@ -28528,25 +28546,25 @@
         <v>1794</v>
       </c>
       <c r="G518" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H518" t="s">
         <v>1796</v>
       </c>
       <c r="I518" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="J518" t="s">
         <v>1798</v>
       </c>
       <c r="K518" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L518" t="s">
         <v>1800</v>
       </c>
       <c r="M518" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="N518"/>
       <c r="O518" t="s">
@@ -28558,7 +28576,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B519"/>
       <c r="C519"/>
@@ -28570,25 +28588,25 @@
         <v>1794</v>
       </c>
       <c r="G519" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H519" t="s">
         <v>1796</v>
       </c>
       <c r="I519" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="J519" t="s">
         <v>1798</v>
       </c>
       <c r="K519" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L519" t="s">
         <v>1800</v>
       </c>
       <c r="M519" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="N519"/>
       <c r="O519" t="s">
@@ -28600,22 +28618,22 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F520" t="s">
         <v>1794</v>
       </c>
       <c r="G520" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H520" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I520" t="s">
         <v>1805</v>
@@ -28624,10 +28642,10 @@
         <v>1798</v>
       </c>
       <c r="K520" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L520" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M520" t="s">
         <v>1806</v>
@@ -28642,22 +28660,22 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F521" t="s">
         <v>1794</v>
       </c>
       <c r="G521" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H521" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I521" t="s">
         <v>1808</v>
@@ -28666,10 +28684,10 @@
         <v>1798</v>
       </c>
       <c r="K521" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L521" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M521" t="s">
         <v>1809</v>
@@ -28684,22 +28702,22 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F522" t="s">
         <v>1794</v>
       </c>
       <c r="G522" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H522" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I522" t="s">
         <v>1811</v>
@@ -28708,13 +28726,13 @@
         <v>1798</v>
       </c>
       <c r="K522" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L522" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M522" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="N522"/>
       <c r="O522" t="s">
@@ -28726,37 +28744,37 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F523" t="s">
         <v>1794</v>
       </c>
       <c r="G523" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H523" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I523" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="J523" t="s">
         <v>1798</v>
       </c>
       <c r="K523" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L523" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M523" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="N523"/>
       <c r="O523" t="s">
@@ -28768,37 +28786,37 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F524" t="s">
         <v>1794</v>
       </c>
       <c r="G524" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H524" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I524" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="J524" t="s">
         <v>1798</v>
       </c>
       <c r="K524" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L524" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M524" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="N524"/>
       <c r="O524" t="s">
@@ -28810,37 +28828,37 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="F525" t="s">
         <v>1794</v>
       </c>
       <c r="G525" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H525" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I525" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J525" t="s">
         <v>1798</v>
       </c>
       <c r="K525" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L525" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M525" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="N525"/>
       <c r="O525" t="s">
@@ -28852,37 +28870,37 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B526"/>
       <c r="C526"/>
       <c r="D526"/>
       <c r="E526" t="s">
-        <v>1893</v>
+        <v>1904</v>
       </c>
       <c r="F526" t="s">
         <v>1794</v>
       </c>
       <c r="G526" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H526" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I526" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J526" t="s">
         <v>1798</v>
       </c>
       <c r="K526" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="L526" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M526" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="N526"/>
       <c r="O526" t="s">
@@ -28894,37 +28912,37 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B527"/>
       <c r="C527"/>
       <c r="D527"/>
       <c r="E527" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F527" t="s">
         <v>1794</v>
       </c>
       <c r="G527" t="s">
-        <v>1905</v>
+        <v>1881</v>
       </c>
       <c r="H527" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I527" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="J527" t="s">
         <v>1798</v>
       </c>
       <c r="K527" t="s">
-        <v>1906</v>
+        <v>1883</v>
       </c>
       <c r="L527" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M527" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="N527"/>
       <c r="O527" t="s">
@@ -28936,37 +28954,37 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B528"/>
       <c r="C528"/>
       <c r="D528"/>
       <c r="E528" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F528" t="s">
         <v>1794</v>
       </c>
       <c r="G528" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H528" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I528" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J528" t="s">
         <v>1798</v>
       </c>
       <c r="K528" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L528" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M528" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N528"/>
       <c r="O528" t="s">
@@ -28978,37 +28996,37 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B529"/>
       <c r="C529"/>
       <c r="D529"/>
       <c r="E529" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F529" t="s">
         <v>1794</v>
       </c>
       <c r="G529" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H529" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I529" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="J529" t="s">
         <v>1798</v>
       </c>
       <c r="K529" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L529" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M529" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="N529"/>
       <c r="O529" t="s">
@@ -29020,37 +29038,37 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B530"/>
       <c r="C530"/>
       <c r="D530"/>
       <c r="E530" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F530" t="s">
         <v>1794</v>
       </c>
       <c r="G530" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H530" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I530" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J530" t="s">
         <v>1798</v>
       </c>
       <c r="K530" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L530" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M530" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="N530"/>
       <c r="O530" t="s">
@@ -29062,37 +29080,37 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B531"/>
       <c r="C531"/>
       <c r="D531"/>
       <c r="E531" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F531" t="s">
         <v>1794</v>
       </c>
       <c r="G531" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H531" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I531" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J531" t="s">
         <v>1798</v>
       </c>
       <c r="K531" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L531" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M531" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="N531"/>
       <c r="O531" t="s">
@@ -29104,37 +29122,37 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B532"/>
       <c r="C532"/>
       <c r="D532"/>
       <c r="E532" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="F532" t="s">
         <v>1794</v>
       </c>
       <c r="G532" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H532" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I532" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="J532" t="s">
         <v>1798</v>
       </c>
       <c r="K532" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L532" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M532" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="N532"/>
       <c r="O532" t="s">
@@ -29146,37 +29164,37 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B533"/>
       <c r="C533"/>
       <c r="D533"/>
       <c r="E533" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="F533" t="s">
         <v>1794</v>
       </c>
       <c r="G533" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H533" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I533" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J533" t="s">
         <v>1798</v>
       </c>
       <c r="K533" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L533" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M533" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="N533"/>
       <c r="O533" t="s">
@@ -29188,37 +29206,37 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B534"/>
       <c r="C534"/>
       <c r="D534"/>
       <c r="E534" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="F534" t="s">
         <v>1794</v>
       </c>
       <c r="G534" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="H534" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I534" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J534" t="s">
         <v>1798</v>
       </c>
       <c r="K534" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="L534" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M534" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="N534"/>
       <c r="O534" t="s">
@@ -29230,37 +29248,37 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B535"/>
       <c r="C535"/>
       <c r="D535"/>
       <c r="E535" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="F535" t="s">
         <v>1794</v>
       </c>
       <c r="G535" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="H535" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I535" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J535" t="s">
         <v>1798</v>
       </c>
       <c r="K535" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="L535" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M535" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N535"/>
       <c r="O535" t="s">
@@ -29278,31 +29296,31 @@
       <c r="C536"/>
       <c r="D536"/>
       <c r="E536" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="F536" t="s">
         <v>1794</v>
       </c>
       <c r="G536" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H536" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I536" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J536" t="s">
         <v>1798</v>
       </c>
       <c r="K536" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L536" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M536" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="N536"/>
       <c r="O536" t="s">
@@ -29314,37 +29332,37 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B537"/>
       <c r="C537"/>
       <c r="D537"/>
       <c r="E537" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="F537" t="s">
         <v>1794</v>
       </c>
       <c r="G537" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H537" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I537" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="J537" t="s">
         <v>1798</v>
       </c>
       <c r="K537" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L537" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M537" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="N537"/>
       <c r="O537" t="s">
@@ -29356,34 +29374,34 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B538"/>
       <c r="C538"/>
       <c r="D538"/>
       <c r="E538" t="s">
-        <v>1904</v>
+        <v>1915</v>
       </c>
       <c r="F538" t="s">
         <v>1794</v>
       </c>
       <c r="G538" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H538" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I538" t="s">
-        <v>1827</v>
+        <v>1864</v>
       </c>
       <c r="J538" t="s">
         <v>1798</v>
       </c>
       <c r="K538" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L538" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M538" t="s">
         <v>1865</v>
@@ -29398,37 +29416,37 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B539"/>
       <c r="C539"/>
       <c r="D539"/>
       <c r="E539" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F539" t="s">
         <v>1794</v>
       </c>
       <c r="G539" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H539" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I539" t="s">
-        <v>1867</v>
+        <v>1829</v>
       </c>
       <c r="J539" t="s">
         <v>1798</v>
       </c>
       <c r="K539" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L539" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M539" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="N539"/>
       <c r="O539" t="s">
@@ -29440,37 +29458,37 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B540"/>
       <c r="C540"/>
       <c r="D540"/>
       <c r="E540" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F540" t="s">
         <v>1794</v>
       </c>
       <c r="G540" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H540" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I540" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="J540" t="s">
         <v>1798</v>
       </c>
       <c r="K540" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L540" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M540" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="N540"/>
       <c r="O540" t="s">
@@ -29482,37 +29500,37 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B541"/>
       <c r="C541"/>
       <c r="D541"/>
       <c r="E541" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
       <c r="F541" t="s">
         <v>1794</v>
       </c>
       <c r="G541" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H541" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I541" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J541" t="s">
         <v>1798</v>
       </c>
       <c r="K541" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L541" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="M541" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="N541"/>
       <c r="O541" t="s">
@@ -29524,37 +29542,37 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B542"/>
       <c r="C542"/>
       <c r="D542"/>
       <c r="E542" t="s">
-        <v>1893</v>
+        <v>1927</v>
       </c>
       <c r="F542" t="s">
         <v>1794</v>
       </c>
       <c r="G542" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H542" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I542" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="J542" t="s">
         <v>1798</v>
       </c>
       <c r="K542" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L542" t="s">
-        <v>1800</v>
+        <v>1897</v>
       </c>
       <c r="M542" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="N542"/>
       <c r="O542" t="s">
@@ -29566,37 +29584,37 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B543"/>
       <c r="C543"/>
       <c r="D543"/>
       <c r="E543" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F543" t="s">
         <v>1794</v>
       </c>
       <c r="G543" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H543" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I543" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="J543" t="s">
         <v>1798</v>
       </c>
       <c r="K543" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L543" t="s">
         <v>1800</v>
       </c>
       <c r="M543" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="N543"/>
       <c r="O543" t="s">
@@ -29608,37 +29626,37 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B544"/>
       <c r="C544"/>
       <c r="D544"/>
       <c r="E544" t="s">
-        <v>1893</v>
+        <v>1907</v>
       </c>
       <c r="F544" t="s">
         <v>1794</v>
       </c>
       <c r="G544" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H544" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="I544" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="J544" t="s">
         <v>1798</v>
       </c>
       <c r="K544" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="L544" t="s">
         <v>1800</v>
       </c>
       <c r="M544" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="N544"/>
       <c r="O544" t="s">
@@ -29650,37 +29668,37 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B545"/>
       <c r="C545"/>
       <c r="D545"/>
       <c r="E545" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F545" t="s">
         <v>1794</v>
       </c>
       <c r="G545" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="H545" t="s">
-        <v>1930</v>
+        <v>1896</v>
       </c>
       <c r="I545" t="s">
-        <v>1805</v>
+        <v>1892</v>
       </c>
       <c r="J545" t="s">
         <v>1798</v>
       </c>
       <c r="K545" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="L545" t="s">
-        <v>1932</v>
+        <v>1800</v>
       </c>
       <c r="M545" t="s">
-        <v>1806</v>
+        <v>1893</v>
       </c>
       <c r="N545"/>
       <c r="O545" t="s">
@@ -29692,37 +29710,37 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B546"/>
       <c r="C546"/>
       <c r="D546"/>
       <c r="E546" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F546" t="s">
         <v>1794</v>
       </c>
       <c r="G546" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H546" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I546" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="J546" t="s">
         <v>1798</v>
       </c>
       <c r="K546" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L546" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M546" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="N546"/>
       <c r="O546" t="s">
@@ -29734,37 +29752,37 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B547"/>
       <c r="C547"/>
       <c r="D547"/>
       <c r="E547" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F547" t="s">
         <v>1794</v>
       </c>
       <c r="G547" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H547" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I547" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="J547" t="s">
         <v>1798</v>
       </c>
       <c r="K547" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L547" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M547" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="N547"/>
       <c r="O547" t="s">
@@ -29776,37 +29794,37 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B548"/>
       <c r="C548"/>
       <c r="D548"/>
       <c r="E548" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F548" t="s">
         <v>1794</v>
       </c>
       <c r="G548" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H548" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I548" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="J548" t="s">
         <v>1798</v>
       </c>
       <c r="K548" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L548" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M548" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="N548"/>
       <c r="O548" t="s">
@@ -29818,37 +29836,37 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B549"/>
       <c r="C549"/>
       <c r="D549"/>
       <c r="E549" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F549" t="s">
         <v>1794</v>
       </c>
       <c r="G549" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H549" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I549" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="J549" t="s">
         <v>1798</v>
       </c>
       <c r="K549" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L549" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M549" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="N549"/>
       <c r="O549" t="s">
@@ -29860,37 +29878,37 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B550"/>
       <c r="C550"/>
       <c r="D550"/>
       <c r="E550" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="F550" t="s">
         <v>1794</v>
       </c>
       <c r="G550" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H550" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I550" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="J550" t="s">
         <v>1798</v>
       </c>
       <c r="K550" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L550" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M550" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="N550"/>
       <c r="O550" t="s">
@@ -29902,37 +29920,37 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B551"/>
       <c r="C551"/>
       <c r="D551"/>
       <c r="E551" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F551" t="s">
         <v>1794</v>
       </c>
       <c r="G551" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H551" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I551" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="J551" t="s">
         <v>1798</v>
       </c>
       <c r="K551" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L551" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M551" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="N551"/>
       <c r="O551" t="s">
@@ -29944,7 +29962,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B552"/>
       <c r="C552"/>
@@ -29956,25 +29974,25 @@
         <v>1794</v>
       </c>
       <c r="G552" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H552" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I552" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="J552" t="s">
         <v>1798</v>
       </c>
       <c r="K552" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L552" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M552" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="N552"/>
       <c r="O552" t="s">
@@ -29986,37 +30004,37 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B553"/>
       <c r="C553"/>
       <c r="D553"/>
       <c r="E553" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F553" t="s">
         <v>1794</v>
       </c>
       <c r="G553" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H553" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I553" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="J553" t="s">
         <v>1798</v>
       </c>
       <c r="K553" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L553" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M553" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="N553"/>
       <c r="O553" t="s">
@@ -30028,37 +30046,37 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B554"/>
       <c r="C554"/>
       <c r="D554"/>
       <c r="E554" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F554" t="s">
         <v>1794</v>
       </c>
       <c r="G554" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H554" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I554" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="J554" t="s">
         <v>1798</v>
       </c>
       <c r="K554" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="L554" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M554" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="N554"/>
       <c r="O554" t="s">
@@ -30070,37 +30088,37 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B555"/>
       <c r="C555"/>
       <c r="D555"/>
       <c r="E555" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F555" t="s">
         <v>1794</v>
       </c>
       <c r="G555" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="H555" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I555" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="J555" t="s">
         <v>1798</v>
       </c>
       <c r="K555" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
       <c r="L555" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M555" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="N555"/>
       <c r="O555" t="s">
@@ -30118,31 +30136,31 @@
       <c r="C556"/>
       <c r="D556"/>
       <c r="E556" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F556" t="s">
         <v>1794</v>
       </c>
       <c r="G556" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="H556" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="I556" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="J556" t="s">
         <v>1798</v>
       </c>
       <c r="K556" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
       <c r="L556" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M556" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="N556"/>
       <c r="O556" t="s">
@@ -30160,31 +30178,31 @@
       <c r="C557"/>
       <c r="D557"/>
       <c r="E557" t="s">
-        <v>1893</v>
+        <v>1907</v>
       </c>
       <c r="F557" t="s">
         <v>1794</v>
       </c>
       <c r="G557" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H557" t="s">
-        <v>1947</v>
+        <v>1933</v>
       </c>
       <c r="I557" t="s">
-        <v>1805</v>
+        <v>1838</v>
       </c>
       <c r="J557" t="s">
         <v>1798</v>
       </c>
       <c r="K557" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L557" t="s">
-        <v>1948</v>
+        <v>1935</v>
       </c>
       <c r="M557" t="s">
-        <v>1806</v>
+        <v>1839</v>
       </c>
       <c r="N557"/>
       <c r="O557" t="s">
@@ -30202,31 +30220,31 @@
       <c r="C558"/>
       <c r="D558"/>
       <c r="E558" t="s">
-        <v>1893</v>
+        <v>1907</v>
       </c>
       <c r="F558" t="s">
         <v>1794</v>
       </c>
       <c r="G558" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H558" t="s">
-        <v>1947</v>
+        <v>1933</v>
       </c>
       <c r="I558" t="s">
-        <v>1808</v>
+        <v>1841</v>
       </c>
       <c r="J558" t="s">
         <v>1798</v>
       </c>
       <c r="K558" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L558" t="s">
-        <v>1948</v>
+        <v>1935</v>
       </c>
       <c r="M558" t="s">
-        <v>1809</v>
+        <v>1842</v>
       </c>
       <c r="N558"/>
       <c r="O558" t="s">
@@ -30244,31 +30262,31 @@
       <c r="C559"/>
       <c r="D559"/>
       <c r="E559" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F559" t="s">
         <v>1794</v>
       </c>
       <c r="G559" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H559" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I559" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="J559" t="s">
         <v>1798</v>
       </c>
       <c r="K559" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L559" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M559" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="N559"/>
       <c r="O559" t="s">
@@ -30280,37 +30298,37 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B560"/>
       <c r="C560"/>
       <c r="D560"/>
       <c r="E560" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F560" t="s">
         <v>1794</v>
       </c>
       <c r="G560" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H560" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I560" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="J560" t="s">
         <v>1798</v>
       </c>
       <c r="K560" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L560" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M560" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="N560"/>
       <c r="O560" t="s">
@@ -30322,37 +30340,37 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B561"/>
       <c r="C561"/>
       <c r="D561"/>
       <c r="E561" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F561" t="s">
         <v>1794</v>
       </c>
       <c r="G561" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H561" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I561" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="J561" t="s">
         <v>1798</v>
       </c>
       <c r="K561" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L561" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M561" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="N561"/>
       <c r="O561" t="s">
@@ -30364,37 +30382,37 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B562"/>
       <c r="C562"/>
       <c r="D562"/>
       <c r="E562" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="F562" t="s">
         <v>1794</v>
       </c>
       <c r="G562" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H562" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I562" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="J562" t="s">
         <v>1798</v>
       </c>
       <c r="K562" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L562" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M562" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="N562"/>
       <c r="O562" t="s">
@@ -30406,37 +30424,37 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B563"/>
       <c r="C563"/>
       <c r="D563"/>
       <c r="E563" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F563" t="s">
         <v>1794</v>
       </c>
       <c r="G563" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H563" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I563" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="J563" t="s">
         <v>1798</v>
       </c>
       <c r="K563" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L563" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M563" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="N563"/>
       <c r="O563" t="s">
@@ -30448,37 +30466,37 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B564"/>
       <c r="C564"/>
       <c r="D564"/>
       <c r="E564" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F564" t="s">
         <v>1794</v>
       </c>
       <c r="G564" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H564" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I564" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="J564" t="s">
         <v>1798</v>
       </c>
       <c r="K564" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L564" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M564" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="N564"/>
       <c r="O564" t="s">
@@ -30490,7 +30508,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B565"/>
       <c r="C565"/>
@@ -30502,25 +30520,25 @@
         <v>1794</v>
       </c>
       <c r="G565" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H565" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I565" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="J565" t="s">
         <v>1798</v>
       </c>
       <c r="K565" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L565" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M565" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="N565"/>
       <c r="O565" t="s">
@@ -30532,37 +30550,37 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B566"/>
       <c r="C566"/>
       <c r="D566"/>
       <c r="E566" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F566" t="s">
         <v>1794</v>
       </c>
       <c r="G566" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="H566" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I566" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="J566" t="s">
         <v>1798</v>
       </c>
       <c r="K566" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="L566" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M566" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="N566"/>
       <c r="O566" t="s">
@@ -30574,37 +30592,37 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B567"/>
       <c r="C567"/>
       <c r="D567"/>
       <c r="E567" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F567" t="s">
         <v>1794</v>
       </c>
       <c r="G567" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="H567" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I567" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="J567" t="s">
         <v>1798</v>
       </c>
       <c r="K567" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="L567" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M567" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="N567"/>
       <c r="O567" t="s">
@@ -30622,31 +30640,31 @@
       <c r="C568"/>
       <c r="D568"/>
       <c r="E568" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="F568" t="s">
         <v>1794</v>
       </c>
       <c r="G568" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="H568" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I568" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="J568" t="s">
         <v>1798</v>
       </c>
       <c r="K568" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="L568" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M568" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="N568"/>
       <c r="O568" t="s">
@@ -30664,31 +30682,31 @@
       <c r="C569"/>
       <c r="D569"/>
       <c r="E569" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="F569" t="s">
         <v>1794</v>
       </c>
       <c r="G569" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="H569" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I569" t="s">
-        <v>1850</v>
+        <v>1835</v>
       </c>
       <c r="J569" t="s">
         <v>1798</v>
       </c>
       <c r="K569" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="L569" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M569" t="s">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="N569"/>
       <c r="O569" t="s">
@@ -30706,31 +30724,31 @@
       <c r="C570"/>
       <c r="D570"/>
       <c r="E570" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="F570" t="s">
         <v>1794</v>
       </c>
       <c r="G570" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H570" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="I570" t="s">
-        <v>1859</v>
+        <v>1838</v>
       </c>
       <c r="J570" t="s">
         <v>1798</v>
       </c>
       <c r="K570" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L570" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="M570" t="s">
-        <v>1860</v>
+        <v>1839</v>
       </c>
       <c r="N570"/>
       <c r="O570" t="s">
@@ -30742,37 +30760,37 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B571"/>
       <c r="C571"/>
       <c r="D571"/>
       <c r="E571" t="s">
-        <v>1965</v>
+        <v>1907</v>
       </c>
       <c r="F571" t="s">
         <v>1794</v>
       </c>
       <c r="G571" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H571" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="I571" t="s">
-        <v>1805</v>
+        <v>1841</v>
       </c>
       <c r="J571" t="s">
         <v>1798</v>
       </c>
       <c r="K571" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L571" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="M571" t="s">
-        <v>1806</v>
+        <v>1842</v>
       </c>
       <c r="N571"/>
       <c r="O571" t="s">
@@ -30784,37 +30802,37 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B572"/>
       <c r="C572"/>
       <c r="D572"/>
       <c r="E572" t="s">
-        <v>1965</v>
+        <v>1915</v>
       </c>
       <c r="F572" t="s">
         <v>1794</v>
       </c>
       <c r="G572" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H572" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="I572" t="s">
-        <v>1808</v>
+        <v>1852</v>
       </c>
       <c r="J572" t="s">
         <v>1798</v>
       </c>
       <c r="K572" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L572" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="M572" t="s">
-        <v>1809</v>
+        <v>1853</v>
       </c>
       <c r="N572"/>
       <c r="O572" t="s">
@@ -30826,37 +30844,37 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B573"/>
       <c r="C573"/>
       <c r="D573"/>
       <c r="E573" t="s">
-        <v>1965</v>
+        <v>1915</v>
       </c>
       <c r="F573" t="s">
         <v>1794</v>
       </c>
       <c r="G573" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H573" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="I573" t="s">
-        <v>1811</v>
+        <v>1861</v>
       </c>
       <c r="J573" t="s">
         <v>1798</v>
       </c>
       <c r="K573" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L573" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="M573" t="s">
-        <v>1813</v>
+        <v>1862</v>
       </c>
       <c r="N573"/>
       <c r="O573" t="s">
@@ -30868,37 +30886,37 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B574"/>
       <c r="C574"/>
       <c r="D574"/>
       <c r="E574" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F574" t="s">
         <v>1794</v>
       </c>
       <c r="G574" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H574" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I574" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="J574" t="s">
         <v>1798</v>
       </c>
       <c r="K574" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L574" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M574" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="N574"/>
       <c r="O574" t="s">
@@ -30910,37 +30928,37 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B575"/>
       <c r="C575"/>
       <c r="D575"/>
       <c r="E575" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F575" t="s">
         <v>1794</v>
       </c>
       <c r="G575" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="H575" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I575" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="J575" t="s">
         <v>1798</v>
       </c>
       <c r="K575" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="L575" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M575" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="N575"/>
       <c r="O575" t="s">
@@ -30952,37 +30970,37 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="B576"/>
       <c r="C576"/>
       <c r="D576"/>
       <c r="E576" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F576" t="s">
         <v>1794</v>
       </c>
       <c r="G576" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="H576" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I576" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="J576" t="s">
         <v>1798</v>
       </c>
       <c r="K576" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="L576" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M576" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="N576"/>
       <c r="O576" t="s">
@@ -31000,31 +31018,31 @@
       <c r="C577"/>
       <c r="D577"/>
       <c r="E577" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F577" t="s">
         <v>1794</v>
       </c>
       <c r="G577" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="H577" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I577" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="J577" t="s">
         <v>1798</v>
       </c>
       <c r="K577" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="L577" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M577" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="N577"/>
       <c r="O577" t="s">
@@ -31042,31 +31060,31 @@
       <c r="C578"/>
       <c r="D578"/>
       <c r="E578" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F578" t="s">
         <v>1794</v>
       </c>
       <c r="G578" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="H578" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I578" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="J578" t="s">
         <v>1798</v>
       </c>
       <c r="K578" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="L578" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M578" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="N578"/>
       <c r="O578" t="s">
@@ -31084,31 +31102,31 @@
       <c r="C579"/>
       <c r="D579"/>
       <c r="E579" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F579" t="s">
         <v>1794</v>
       </c>
       <c r="G579" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="H579" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I579" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="J579" t="s">
         <v>1798</v>
       </c>
       <c r="K579" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="L579" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M579" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="N579"/>
       <c r="O579" t="s">
@@ -31126,31 +31144,31 @@
       <c r="C580"/>
       <c r="D580"/>
       <c r="E580" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F580" t="s">
         <v>1794</v>
       </c>
       <c r="G580" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H580" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="I580" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="J580" t="s">
         <v>1798</v>
       </c>
       <c r="K580" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="L580" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="M580" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="N580"/>
       <c r="O580" t="s">
@@ -31162,37 +31180,37 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="B581"/>
       <c r="C581"/>
       <c r="D581"/>
       <c r="E581" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="F581" t="s">
         <v>1794</v>
       </c>
       <c r="G581" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H581" t="s">
-        <v>1137</v>
+        <v>1971</v>
       </c>
       <c r="I581" t="s">
-        <v>1884</v>
+        <v>1832</v>
       </c>
       <c r="J581" t="s">
         <v>1798</v>
       </c>
       <c r="K581" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="L581" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="M581" t="s">
-        <v>1885</v>
+        <v>1833</v>
       </c>
       <c r="N581"/>
       <c r="O581" t="s">
@@ -31210,31 +31228,31 @@
       <c r="C582"/>
       <c r="D582"/>
       <c r="E582" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="F582" t="s">
         <v>1794</v>
       </c>
       <c r="G582" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H582" t="s">
-        <v>1137</v>
+        <v>1971</v>
       </c>
       <c r="I582" t="s">
-        <v>1983</v>
+        <v>1835</v>
       </c>
       <c r="J582" t="s">
         <v>1798</v>
       </c>
       <c r="K582" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="L582" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="M582" t="s">
-        <v>1888</v>
+        <v>1836</v>
       </c>
       <c r="N582"/>
       <c r="O582" t="s">
@@ -31246,43 +31264,211 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B583"/>
       <c r="C583"/>
       <c r="D583"/>
       <c r="E583" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="F583" t="s">
         <v>1794</v>
       </c>
       <c r="G583" t="s">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H583" t="s">
-        <v>1137</v>
+        <v>1971</v>
       </c>
       <c r="I583" t="s">
-        <v>1890</v>
+        <v>1838</v>
       </c>
       <c r="J583" t="s">
         <v>1798</v>
       </c>
       <c r="K583" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="L583" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="M583" t="s">
-        <v>1891</v>
+        <v>1839</v>
       </c>
       <c r="N583"/>
       <c r="O583" t="s">
         <v>1802</v>
       </c>
       <c r="P583" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B584"/>
+      <c r="C584"/>
+      <c r="D584"/>
+      <c r="E584" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1971</v>
+      </c>
+      <c r="I584" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J584" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K584" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1972</v>
+      </c>
+      <c r="M584" t="s">
+        <v>1842</v>
+      </c>
+      <c r="N584"/>
+      <c r="O584" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P584" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B585"/>
+      <c r="C585"/>
+      <c r="D585"/>
+      <c r="E585" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G585" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H585" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I585" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K585" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L585" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M585" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N585"/>
+      <c r="O585" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P585" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B586"/>
+      <c r="C586"/>
+      <c r="D586"/>
+      <c r="E586" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I586" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J586" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K586" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L586" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M586" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N586"/>
+      <c r="O586" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P586" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B587"/>
+      <c r="C587"/>
+      <c r="D587"/>
+      <c r="E587" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G587" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I587" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J587" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K587" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L587" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M587" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N587"/>
+      <c r="O587" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P587" t="s">
         <v>1803</v>
       </c>
     </row>
